--- a/data/SI_Mutti.xlsx
+++ b/data/SI_Mutti.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="193">
   <si>
     <t>p_val</t>
   </si>
@@ -97,6 +97,39 @@
     <t>17</t>
   </si>
   <si>
+    <t>Ctxn1</t>
+  </si>
+  <si>
+    <t>Mal2</t>
+  </si>
+  <si>
+    <t>Arpp21</t>
+  </si>
+  <si>
+    <t>Gpr88</t>
+  </si>
+  <si>
+    <t>Ppp1r1b</t>
+  </si>
+  <si>
+    <t>Pcp4</t>
+  </si>
+  <si>
+    <t>Map1b</t>
+  </si>
+  <si>
+    <t>Pkm</t>
+  </si>
+  <si>
+    <t>Ncdn</t>
+  </si>
+  <si>
+    <t>Cplx2</t>
+  </si>
+  <si>
+    <t>Calm2</t>
+  </si>
+  <si>
     <t>Mbp</t>
   </si>
   <si>
@@ -106,460 +139,427 @@
     <t>Fth1</t>
   </si>
   <si>
-    <t>Calm3</t>
-  </si>
-  <si>
     <t>Tpt1</t>
   </si>
   <si>
     <t>Gas5</t>
   </si>
   <si>
-    <t>Pcp4</t>
-  </si>
-  <si>
-    <t>Map1b</t>
-  </si>
-  <si>
-    <t>Ncdn</t>
-  </si>
-  <si>
-    <t>Cplx2</t>
-  </si>
-  <si>
-    <t>Calm2</t>
-  </si>
-  <si>
-    <t>Calm1</t>
-  </si>
-  <si>
-    <t>Ctxn1</t>
-  </si>
-  <si>
-    <t>Mal2</t>
-  </si>
-  <si>
-    <t>Arpp21</t>
-  </si>
-  <si>
-    <t>Ppp1r1b</t>
+    <t>mt-Rnr2</t>
+  </si>
+  <si>
+    <t>Snhg11</t>
+  </si>
+  <si>
+    <t>Meg3</t>
+  </si>
+  <si>
+    <t>Pde10a</t>
+  </si>
+  <si>
+    <t>Lrtm1</t>
+  </si>
+  <si>
+    <t>RP23-361B11.2</t>
+  </si>
+  <si>
+    <t>RP24-439I22.3</t>
+  </si>
+  <si>
+    <t>Aldoc</t>
+  </si>
+  <si>
+    <t>Apoe</t>
+  </si>
+  <si>
+    <t>Mt1</t>
+  </si>
+  <si>
+    <t>Slc1a2</t>
+  </si>
+  <si>
+    <t>Ndrg2</t>
+  </si>
+  <si>
+    <t>Cpe</t>
+  </si>
+  <si>
+    <t>Sirt2</t>
+  </si>
+  <si>
+    <t>Pdlim2</t>
+  </si>
+  <si>
+    <t>Cnp</t>
+  </si>
+  <si>
+    <t>Plekhb1</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Mhrt</t>
+  </si>
+  <si>
+    <t>Ahi1</t>
+  </si>
+  <si>
+    <t>Gria1</t>
+  </si>
+  <si>
+    <t>Pnisr</t>
+  </si>
+  <si>
+    <t>Tmem158</t>
+  </si>
+  <si>
+    <t>Atp2b1</t>
+  </si>
+  <si>
+    <t>Spock3</t>
+  </si>
+  <si>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Adora2a</t>
+  </si>
+  <si>
+    <t>Atp1a2</t>
+  </si>
+  <si>
+    <t>Plpp3</t>
+  </si>
+  <si>
+    <t>Htra1</t>
+  </si>
+  <si>
+    <t>Gpr37l1</t>
+  </si>
+  <si>
+    <t>Atp1b2</t>
+  </si>
+  <si>
+    <t>Gja1</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Cldn11</t>
+  </si>
+  <si>
+    <t>Mog</t>
+  </si>
+  <si>
+    <t>Tspan2</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Plp1</t>
+  </si>
+  <si>
+    <t>Cldn5</t>
+  </si>
+  <si>
+    <t>Rgs5</t>
+  </si>
+  <si>
+    <t>Igfbp7</t>
+  </si>
+  <si>
+    <t>Itm2a</t>
+  </si>
+  <si>
+    <t>Ly6c1</t>
+  </si>
+  <si>
+    <t>Bsg</t>
+  </si>
+  <si>
+    <t>hexb</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Ctss</t>
+  </si>
+  <si>
+    <t>P2ry12</t>
+  </si>
+  <si>
+    <t>C1qb</t>
+  </si>
+  <si>
+    <t>C1qc</t>
+  </si>
+  <si>
+    <t>Ccnd2</t>
+  </si>
+  <si>
+    <t>Igfbpl1</t>
+  </si>
+  <si>
+    <t>Sox11</t>
+  </si>
+  <si>
+    <t>Tubb2b</t>
+  </si>
+  <si>
+    <t>Sox4</t>
+  </si>
+  <si>
+    <t>Tubb5</t>
+  </si>
+  <si>
+    <t>C1ql1</t>
+  </si>
+  <si>
+    <t>Olig1</t>
+  </si>
+  <si>
+    <t>Lims2</t>
+  </si>
+  <si>
+    <t>Gpr17</t>
+  </si>
+  <si>
+    <t>Pdgfra</t>
+  </si>
+  <si>
+    <t>Olig2</t>
+  </si>
+  <si>
+    <t>Tyrobp</t>
+  </si>
+  <si>
+    <t>Fcer1g</t>
+  </si>
+  <si>
+    <t>Fxyd1</t>
+  </si>
+  <si>
+    <t>Igfbp5</t>
+  </si>
+  <si>
+    <t>Prdx6</t>
+  </si>
+  <si>
+    <t>Dbi</t>
+  </si>
+  <si>
+    <t>RP23-83I13.10</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Nos1</t>
+  </si>
+  <si>
+    <t>Cygb</t>
+  </si>
+  <si>
+    <t>Sst</t>
+  </si>
+  <si>
+    <t>Npy</t>
+  </si>
+  <si>
+    <t>Nap1l5</t>
+  </si>
+  <si>
+    <t>Ccdc153</t>
+  </si>
+  <si>
+    <t>Tmem212</t>
+  </si>
+  <si>
+    <t>Foxj1</t>
+  </si>
+  <si>
+    <t>Rsph1</t>
+  </si>
+  <si>
+    <t>RP23-100C7.3</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Oligodendrocytes</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>Indirect spiny neurons</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Microglia</t>
+  </si>
+  <si>
+    <t>Intermediate progenitor cells</t>
+  </si>
+  <si>
+    <t>Oligodendrocytes parental cells</t>
+  </si>
+  <si>
+    <t>Ependymal cells</t>
+  </si>
+  <si>
+    <t>Interneurons</t>
+  </si>
+  <si>
+    <t>seurat_clusters</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Tac1</t>
+  </si>
+  <si>
+    <t>Foxp2</t>
+  </si>
+  <si>
+    <t>Drd</t>
+  </si>
+  <si>
+    <t>Pdyn</t>
+  </si>
+  <si>
+    <t>Gap43</t>
+  </si>
+  <si>
+    <t>RP23-182N12.4</t>
+  </si>
+  <si>
+    <t>Drd2</t>
+  </si>
+  <si>
+    <t>Rgs9</t>
+  </si>
+  <si>
+    <t>Gpr6</t>
+  </si>
+  <si>
+    <t>Sez6</t>
+  </si>
+  <si>
+    <t>Hpca</t>
   </si>
   <si>
     <t>Nrgn</t>
   </si>
   <si>
-    <t>Snhg11</t>
-  </si>
-  <si>
-    <t>Meg3</t>
-  </si>
-  <si>
-    <t>Pde10a</t>
+    <t>Rgs4</t>
+  </si>
+  <si>
+    <t>Camk2n1</t>
+  </si>
+  <si>
+    <t>Cnr1</t>
+  </si>
+  <si>
+    <t>Snca</t>
+  </si>
+  <si>
+    <t>Gucy1a3</t>
+  </si>
+  <si>
+    <t>Clu</t>
+  </si>
+  <si>
+    <t>Scn4b</t>
+  </si>
+  <si>
+    <t>Atp2b2</t>
+  </si>
+  <si>
+    <t>Pclaf</t>
+  </si>
+  <si>
+    <t>Top2a</t>
+  </si>
+  <si>
+    <t>Hmgb2</t>
+  </si>
+  <si>
+    <t>RP23-387F9.3</t>
+  </si>
+  <si>
+    <t>H2afv</t>
+  </si>
+  <si>
+    <t>Cxcl12</t>
+  </si>
+  <si>
+    <t>Stmn2</t>
+  </si>
+  <si>
+    <t>Tubb3</t>
+  </si>
+  <si>
+    <t>Fabp7</t>
+  </si>
+  <si>
+    <t>Crabp1</t>
+  </si>
+  <si>
+    <t>Dynlrb2</t>
+  </si>
+  <si>
+    <t>Direct spiny neurons</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Adcy5</t>
   </si>
   <si>
-    <t>Lrtm1</t>
-  </si>
-  <si>
-    <t>RP23-361B11.2</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Tmem158</t>
-  </si>
-  <si>
-    <t>Adora2a</t>
-  </si>
-  <si>
-    <t>Plppr4</t>
-  </si>
-  <si>
-    <t>AC091465.2</t>
-  </si>
-  <si>
-    <t>Apoe</t>
-  </si>
-  <si>
-    <t>Aldoc</t>
-  </si>
-  <si>
-    <t>Mt1</t>
-  </si>
-  <si>
-    <t>Clu</t>
-  </si>
-  <si>
-    <t>Ndrg2</t>
-  </si>
-  <si>
-    <t>Cpe</t>
-  </si>
-  <si>
-    <t>Son</t>
-  </si>
-  <si>
-    <t>Mhrt</t>
-  </si>
-  <si>
-    <t>Ahi1</t>
-  </si>
-  <si>
-    <t>Pnisr</t>
-  </si>
-  <si>
-    <t>Gria1</t>
-  </si>
-  <si>
-    <t>Atp1a2</t>
-  </si>
-  <si>
-    <t>Plpp3</t>
-  </si>
-  <si>
-    <t>Htra1</t>
-  </si>
-  <si>
-    <t>Gpr37l1</t>
-  </si>
-  <si>
-    <t>Gja1</t>
-  </si>
-  <si>
-    <t>Atp1b2</t>
-  </si>
-  <si>
-    <t>Plp1</t>
-  </si>
-  <si>
-    <t>Cnp</t>
-  </si>
-  <si>
-    <t>Cryab</t>
-  </si>
-  <si>
-    <t>Sirt2</t>
-  </si>
-  <si>
-    <t>Cldn11</t>
-  </si>
-  <si>
-    <t>Mog</t>
-  </si>
-  <si>
-    <t>hexb</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Ctss</t>
-  </si>
-  <si>
-    <t>P2ry12</t>
-  </si>
-  <si>
-    <t>C1qb</t>
-  </si>
-  <si>
-    <t>C1qc</t>
-  </si>
-  <si>
-    <t>Mal</t>
-  </si>
-  <si>
-    <t>Tspan2</t>
-  </si>
-  <si>
-    <t>Cldn5</t>
-  </si>
-  <si>
-    <t>Rgs5</t>
-  </si>
-  <si>
-    <t>Igfbp7</t>
-  </si>
-  <si>
-    <t>Itm2a</t>
-  </si>
-  <si>
-    <t>Ly6c1</t>
-  </si>
-  <si>
-    <t>Bsg</t>
-  </si>
-  <si>
-    <t>Igfbpl1</t>
-  </si>
-  <si>
-    <t>Sox11</t>
-  </si>
-  <si>
-    <t>Tubb2b</t>
-  </si>
-  <si>
-    <t>Sox4</t>
-  </si>
-  <si>
-    <t>Ccnd2</t>
-  </si>
-  <si>
-    <t>Tubb5</t>
-  </si>
-  <si>
-    <t>C1ql1</t>
-  </si>
-  <si>
-    <t>Olig1</t>
-  </si>
-  <si>
-    <t>Lims2</t>
-  </si>
-  <si>
-    <t>Gpr17</t>
-  </si>
-  <si>
-    <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>Olig2</t>
-  </si>
-  <si>
-    <t>Fxyd1</t>
-  </si>
-  <si>
-    <t>Slc1a2</t>
-  </si>
-  <si>
-    <t>Prdx6</t>
-  </si>
-  <si>
-    <t>Dbi</t>
-  </si>
-  <si>
-    <t>Tyrobp</t>
-  </si>
-  <si>
-    <t>Fcer1g</t>
-  </si>
-  <si>
-    <t>Aif1</t>
+    <t>Atp1a1</t>
+  </si>
+  <si>
+    <t>Celf4</t>
+  </si>
+  <si>
+    <t>Nefm</t>
+  </si>
+  <si>
+    <t>Opalin</t>
+  </si>
+  <si>
+    <t>Hapln2</t>
+  </si>
+  <si>
+    <t>Apod</t>
+  </si>
+  <si>
+    <t>Trf</t>
+  </si>
+  <si>
+    <t>S100b</t>
   </si>
   <si>
     <t>Vsnl1</t>
   </si>
   <si>
-    <t>Cox6a2</t>
-  </si>
-  <si>
-    <t>Nos1</t>
-  </si>
-  <si>
-    <t>Ppm1l</t>
+    <t>Olfm1</t>
+  </si>
+  <si>
+    <t>Sncb</t>
   </si>
   <si>
     <t>Igfbp4</t>
-  </si>
-  <si>
-    <t>Nap1l5</t>
-  </si>
-  <si>
-    <t>Ccdc153</t>
-  </si>
-  <si>
-    <t>Tmem212</t>
-  </si>
-  <si>
-    <t>Dynlrb2</t>
-  </si>
-  <si>
-    <t>Rsph1</t>
-  </si>
-  <si>
-    <t>RP23-100C7.3</t>
-  </si>
-  <si>
-    <t>Oligodendrocytes</t>
-  </si>
-  <si>
-    <t>Neurons</t>
-  </si>
-  <si>
-    <t>Indirect spiny neurons</t>
-  </si>
-  <si>
-    <t>Astrocytes</t>
-  </si>
-  <si>
-    <t>Microglia</t>
-  </si>
-  <si>
-    <t>Endothelial cells</t>
-  </si>
-  <si>
-    <t>Intermediate progenitor cells</t>
-  </si>
-  <si>
-    <t>Oligodendrocytes parental cells</t>
-  </si>
-  <si>
-    <t>Interneurons</t>
-  </si>
-  <si>
-    <t>Ependymal cells</t>
-  </si>
-  <si>
-    <t>seurat_clusters</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Drd2</t>
-  </si>
-  <si>
-    <t>Hpca</t>
-  </si>
-  <si>
-    <t>Rasd2</t>
-  </si>
-  <si>
-    <t>Drd</t>
-  </si>
-  <si>
-    <t>Tac1</t>
-  </si>
-  <si>
-    <t>Rgs4</t>
-  </si>
-  <si>
-    <t>Nefm</t>
-  </si>
-  <si>
-    <t>Camk2n1</t>
-  </si>
-  <si>
-    <t>Gpr6</t>
-  </si>
-  <si>
-    <t>Gucy1a3</t>
-  </si>
-  <si>
-    <t>Foxp2</t>
-  </si>
-  <si>
-    <t>Pdyn</t>
-  </si>
-  <si>
-    <t>Gap43</t>
-  </si>
-  <si>
-    <t>RP23-182N12.4</t>
-  </si>
-  <si>
-    <t>Lmo4</t>
-  </si>
-  <si>
-    <t>Scn4b</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Atp2b2</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Pclaf</t>
-  </si>
-  <si>
-    <t>Hmgb2</t>
-  </si>
-  <si>
-    <t>Hmgn2</t>
-  </si>
-  <si>
-    <t>RP23-387F9.3</t>
-  </si>
-  <si>
-    <t>H2afv</t>
-  </si>
-  <si>
-    <t>Cxcl12</t>
-  </si>
-  <si>
-    <t>Stmn2</t>
-  </si>
-  <si>
-    <t>Tubb3</t>
-  </si>
-  <si>
-    <t>Tuba1a</t>
-  </si>
-  <si>
-    <t>Igfbp5</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Crabp1</t>
-  </si>
-  <si>
-    <t>Gpr83</t>
-  </si>
-  <si>
-    <t>Direct spiny neurons</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Sez6</t>
-  </si>
-  <si>
-    <t>Atp1a1</t>
-  </si>
-  <si>
-    <t>Snca</t>
-  </si>
-  <si>
-    <t>Celf4</t>
-  </si>
-  <si>
-    <t>Cnr1</t>
-  </si>
-  <si>
-    <t>Opalin</t>
-  </si>
-  <si>
-    <t>Hapln2</t>
-  </si>
-  <si>
-    <t>Apod</t>
-  </si>
-  <si>
-    <t>Trf</t>
-  </si>
-  <si>
-    <t>S100b</t>
-  </si>
-  <si>
-    <t>Top2a</t>
-  </si>
-  <si>
-    <t>Fabp7</t>
-  </si>
-  <si>
-    <t>Olfm1</t>
-  </si>
-  <si>
-    <t>Sncb</t>
   </si>
   <si>
     <t>Matn4</t>
@@ -677,13 +677,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0269000216856927</v>
+        <v>1.1369347654833133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.986</v>
+        <v>0.969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -695,7 +695,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -703,13 +703,13 @@
         <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.802772683438135</v>
+        <v>1.097912513395286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.897</v>
+        <v>0.686</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158</v>
+        <v>0.049</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +729,13 @@
         <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.048454394259897</v>
+        <v>1.054448240956495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.971</v>
+        <v>0.997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.736</v>
+        <v>0.344</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -747,24 +747,24 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.2085867882601994E-11</v>
+        <v>0.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8830674084811792</v>
+        <v>1.0412830338569223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204</v>
+        <v>0.91</v>
       </c>
       <c r="D5" t="n">
-        <v>0.371</v>
+        <v>0.119</v>
       </c>
       <c r="E5" t="n">
-        <v>3.1652887984534624E-7</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -773,24 +773,24 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.49987827546023E-9</v>
+        <v>0.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9342809582142986</v>
+        <v>1.0362594638838147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196</v>
+        <v>0.996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.338</v>
+        <v>0.244</v>
       </c>
       <c r="E6" t="n">
-        <v>1.9642181203430341E-4</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -799,24 +799,24 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.5757518847137415E-5</v>
+        <v>0.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0837844170246265</v>
+        <v>1.0245724040053172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.387</v>
+        <v>0.617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6745894186065289</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -825,163 +825,163 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.0347140126465462E-103</v>
+        <v>8.047705246315763E-99</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9289303394431316</v>
+        <v>0.9156402852924383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.661</v>
+        <v>0.662</v>
       </c>
       <c r="E8" t="n">
-        <v>2.7099159991213045E-99</v>
+        <v>2.1076940040100982E-94</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.5056394749771337E-32</v>
+        <v>2.5201911312300785E-31</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8467555379468104</v>
+        <v>0.8998525534103927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.083</v>
+        <v>0.085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="E9" t="n">
-        <v>3.943269784965113E-28</v>
+        <v>6.600380572691576E-27</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.485708203212885E-23</v>
+        <v>1.2121763106901645E-30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9210548813780226</v>
+        <v>0.8216774604584476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107</v>
+        <v>0.125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274</v>
+        <v>0.346</v>
       </c>
       <c r="E10" t="n">
-        <v>2.4843069784214545E-18</v>
+        <v>3.1746897576975405E-26</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.8688659297508227E-6</v>
+        <v>4.1137901869112096E-24</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8909227663072339</v>
+        <v>0.8939967460885783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.227</v>
+        <v>0.104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.386</v>
+        <v>0.278</v>
       </c>
       <c r="E11" t="n">
-        <v>0.048945598700174044</v>
+        <v>1.0774016499520458E-19</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.888864355539459E-6</v>
+        <v>6.3451551084777385E-6</v>
       </c>
       <c r="B12" t="n">
-        <v>0.98860957516463</v>
+        <v>0.8807109937134334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.409</v>
+        <v>0.229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.522</v>
+        <v>0.385</v>
       </c>
       <c r="E12" t="n">
-        <v>0.10184935747157843</v>
+        <v>0.16617961229103198</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0011697831282473613</v>
+        <v>1.1649395694575616E-5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8725074280187828</v>
+        <v>0.9822523533762406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.323</v>
+        <v>0.411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.543</v>
+        <v>0.528</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.3050976732409354</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -989,13 +989,13 @@
         <v>0.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.1298582694819612</v>
+        <v>2.364991986673753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.148</v>
+        <v>0.378</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
@@ -1004,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -1015,13 +1015,13 @@
         <v>0.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1.051797733611651</v>
+        <v>2.197301675312985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.726</v>
+        <v>0.877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.065</v>
+        <v>0.19</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -1041,13 +1041,13 @@
         <v>0.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0302339877473923</v>
+        <v>1.6915714489872915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.998</v>
+        <v>0.963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.37</v>
+        <v>0.749</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -1056,88 +1056,88 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0</v>
+        <v>2.6177415842180605E-15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0108312660610168</v>
+        <v>0.8334942354408543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.995</v>
+        <v>0.168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.273</v>
+        <v>0.348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>6.8558652090671E-11</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0</v>
+        <v>8.187684049445945E-11</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0100942655736294</v>
+        <v>1.0005374545876298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.904</v>
+        <v>0.208</v>
       </c>
       <c r="D18" t="n">
-        <v>0.134</v>
+        <v>0.39</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>2.144354452549893E-6</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.6851684189171654E-257</v>
+        <v>4.877376407594736E-4</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0100958385576604</v>
+        <v>0.9572590853498428</v>
       </c>
       <c r="C19" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.4134560891440564E-253</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
@@ -1145,13 +1145,13 @@
         <v>0.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1.7880429869888363</v>
+        <v>1.7846325679216033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.947</v>
+        <v>0.939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276</v>
+        <v>0.284</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -1163,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -1171,13 +1171,13 @@
         <v>0.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1.6375817431392594</v>
+        <v>1.7005576291706181</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
       <c r="D21" t="n">
-        <v>0.405</v>
+        <v>0.412</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
@@ -1189,24 +1189,24 @@
         <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0</v>
+        <v>2.6180084290501487E-292</v>
       </c>
       <c r="B22" t="n">
-        <v>1.467286465929528</v>
+        <v>1.4255571201609527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.952</v>
+        <v>0.932</v>
       </c>
       <c r="D22" t="n">
-        <v>0.294</v>
+        <v>0.304</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>6.856564075682339E-288</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1215,24 +1215,24 @@
         <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0</v>
+        <v>1.5698356403472744E-140</v>
       </c>
       <c r="B23" t="n">
-        <v>1.410063124844032</v>
+        <v>1.602993274902286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.855</v>
+        <v>0.415</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257</v>
+        <v>0.102</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>4.1113995420695115E-136</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1241,24 +1241,24 @@
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.9156145085823E-188</v>
+        <v>4.863688019535826E-133</v>
       </c>
       <c r="B24" t="n">
-        <v>1.6004541953265765</v>
+        <v>1.5174964908642259</v>
       </c>
       <c r="C24" t="n">
-        <v>0.441</v>
+        <v>0.547</v>
       </c>
       <c r="D24" t="n">
-        <v>0.095</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.2873994397977043E-183</v>
+        <v>1.2737998923164328E-128</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1267,24 +1267,24 @@
         <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.5511929313343465E-186</v>
+        <v>3.3460274823346124E-128</v>
       </c>
       <c r="B25" t="n">
-        <v>1.5162147144905334</v>
+        <v>1.488294313302132</v>
       </c>
       <c r="C25" t="n">
-        <v>0.588</v>
+        <v>0.485</v>
       </c>
       <c r="D25" t="n">
-        <v>0.188</v>
+        <v>0.157</v>
       </c>
       <c r="E25" t="n">
-        <v>9.300574287164653E-182</v>
+        <v>8.76324597623435E-124</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1293,24 +1293,24 @@
         <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.079472095741936E-176</v>
+        <v>0.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1.407936707066633</v>
+        <v>2.7243263941519342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.658</v>
+        <v>0.64</v>
       </c>
       <c r="D26" t="n">
-        <v>0.155</v>
+        <v>0.076</v>
       </c>
       <c r="E26" t="n">
-        <v>2.116013741874813E-171</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1319,24 +1319,24 @@
         <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.898476113038432E-170</v>
+        <v>0.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8102966784923216</v>
+        <v>2.6792716379378954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.811</v>
+        <v>0.836</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224</v>
+        <v>0.136</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5924108940047655E-165</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1345,24 +1345,24 @@
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.480631021855056E-169</v>
+        <v>1.1815981706899437E-213</v>
       </c>
       <c r="B28" t="n">
-        <v>1.021002812882612</v>
+        <v>2.515243234553202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.591</v>
+        <v>0.695</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123</v>
+        <v>0.21</v>
       </c>
       <c r="E28" t="n">
-        <v>1.4353772646238392E-164</v>
+        <v>3.0946056090369624E-209</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1371,24 +1371,24 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.2091618843775287E-147</v>
+        <v>7.753455963190416E-201</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8072476148418304</v>
+        <v>2.2889148363417418</v>
       </c>
       <c r="C29" t="n">
-        <v>0.693</v>
+        <v>0.518</v>
       </c>
       <c r="D29" t="n">
-        <v>0.193</v>
+        <v>0.097</v>
       </c>
       <c r="E29" t="n">
-        <v>3.1667949751847477E-143</v>
+        <v>2.0306301167595698E-196</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1397,82 +1397,82 @@
         <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.7083713224222824E-76</v>
+        <v>1.833807898966699E-128</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8252543576324052</v>
+        <v>2.3332578455527715</v>
       </c>
       <c r="C30" t="n">
-        <v>0.409</v>
+        <v>0.378</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122</v>
+        <v>0.078</v>
       </c>
       <c r="E30" t="n">
-        <v>4.4742244934239576E-72</v>
+        <v>4.802742887393785E-124</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.78589210799359E-58</v>
+        <v>2.577859355802472E-86</v>
       </c>
       <c r="B31" t="n">
-        <v>0.833142238842147</v>
+        <v>2.255460988131005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.319</v>
+        <v>0.518</v>
       </c>
       <c r="D31" t="n">
-        <v>0.097</v>
+        <v>0.237</v>
       </c>
       <c r="E31" t="n">
-        <v>1.777225143083521E-53</v>
+        <v>6.751413652846675E-82</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0</v>
+        <v>3.5241965864864726E-262</v>
       </c>
       <c r="B32" t="n">
-        <v>2.536938150393642</v>
+        <v>1.7124240517783416</v>
       </c>
       <c r="C32" t="n">
-        <v>0.806</v>
+        <v>0.887</v>
       </c>
       <c r="D32" t="n">
-        <v>0.144</v>
+        <v>0.243</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>9.22987086000807E-258</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
         <v>124</v>
@@ -1480,25 +1480,25 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.3983204352540894E-266</v>
+        <v>3.7137819429688605E-237</v>
       </c>
       <c r="B33" t="n">
-        <v>2.5071688497112934</v>
+        <v>1.7123402636646858</v>
       </c>
       <c r="C33" t="n">
-        <v>0.593</v>
+        <v>0.973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.087</v>
+        <v>0.425</v>
       </c>
       <c r="E33" t="n">
-        <v>3.66220121993046E-262</v>
+        <v>9.726394908635446E-233</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
         <v>124</v>
@@ -1506,25 +1506,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.010053867137619E-149</v>
+        <v>1.8532585218350493E-89</v>
       </c>
       <c r="B34" t="n">
-        <v>2.232965014933956</v>
+        <v>1.919158862138376</v>
       </c>
       <c r="C34" t="n">
-        <v>0.645</v>
+        <v>0.416</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216</v>
+        <v>0.126</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5740331078033423E-144</v>
+        <v>4.853684068685994E-85</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>124</v>
@@ -1532,25 +1532,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.582352704829158E-75</v>
+        <v>3.047305760665984E-88</v>
       </c>
       <c r="B35" t="n">
-        <v>2.108097301351397</v>
+        <v>1.834938687702067</v>
       </c>
       <c r="C35" t="n">
-        <v>0.365</v>
+        <v>0.292</v>
       </c>
       <c r="D35" t="n">
-        <v>0.107</v>
+        <v>0.06</v>
       </c>
       <c r="E35" t="n">
-        <v>1.4620181733947566E-70</v>
+        <v>7.980893787184213E-84</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
         <v>124</v>
@@ -1558,25 +1558,25 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.004480639338833E-70</v>
+        <v>5.701630719425817E-80</v>
       </c>
       <c r="B36" t="n">
-        <v>2.221141311348968</v>
+        <v>1.6945947636524716</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313</v>
+        <v>0.395</v>
       </c>
       <c r="D36" t="n">
-        <v>0.085</v>
+        <v>0.117</v>
       </c>
       <c r="E36" t="n">
-        <v>1.8344734794428403E-65</v>
+        <v>1.4932570854176214E-75</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
         <v>124</v>
@@ -1584,25 +1584,25 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.39648868354831E-53</v>
+        <v>2.148867751247813E-74</v>
       </c>
       <c r="B37" t="n">
-        <v>2.1851210905356346</v>
+        <v>1.608392495582495</v>
       </c>
       <c r="C37" t="n">
-        <v>0.466</v>
+        <v>0.296</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244</v>
+        <v>0.071</v>
       </c>
       <c r="E37" t="n">
-        <v>1.4133403862213024E-48</v>
+        <v>5.627884640518022E-70</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H37" t="s">
         <v>124</v>
@@ -1610,19 +1610,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.090631345103435E-147</v>
+        <v>9.028177463728472E-146</v>
       </c>
       <c r="B38" t="n">
-        <v>1.247638848298287</v>
+        <v>1.2824985205592938</v>
       </c>
       <c r="C38" t="n">
-        <v>0.92</v>
+        <v>0.934</v>
       </c>
       <c r="D38" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="E38" t="n">
-        <v>8.094363492825896E-143</v>
+        <v>2.3644796777504868E-141</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1631,449 +1631,449 @@
         <v>44</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.996198648628575E-81</v>
+        <v>2.3320724316643907E-76</v>
       </c>
       <c r="B39" t="n">
-        <v>1.4219712087252212</v>
+        <v>1.4611699216640095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="D39" t="n">
-        <v>0.458</v>
+        <v>0.461</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0466044260758237E-76</v>
+        <v>6.107697698529039E-72</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.5551517534947993E-25</v>
+        <v>5.550515430193426E-28</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4754356624914362</v>
+        <v>1.5713246879075713</v>
       </c>
       <c r="C40" t="n">
-        <v>0.311</v>
+        <v>0.324</v>
       </c>
       <c r="D40" t="n">
-        <v>0.159</v>
+        <v>0.157</v>
       </c>
       <c r="E40" t="n">
-        <v>4.072942442402879E-21</v>
+        <v>1.4536799911676583E-23</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.323599730890302E-15</v>
+        <v>6.741265384865357E-14</v>
       </c>
       <c r="B41" t="n">
-        <v>1.2472347504454269</v>
+        <v>1.2930302463192505</v>
       </c>
       <c r="C41" t="n">
         <v>0.334</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232</v>
+        <v>0.233</v>
       </c>
       <c r="E41" t="n">
-        <v>2.17995076952017E-10</v>
+        <v>1.7655374042962368E-9</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.5841199755562492E-14</v>
+        <v>8.336970206511256E-14</v>
       </c>
       <c r="B42" t="n">
-        <v>1.21993688921608</v>
+        <v>1.2371736790412657</v>
       </c>
       <c r="C42" t="n">
-        <v>0.366</v>
+        <v>0.31</v>
       </c>
       <c r="D42" t="n">
-        <v>0.281</v>
+        <v>0.205</v>
       </c>
       <c r="E42" t="n">
-        <v>6.767810215981817E-10</v>
+        <v>2.183452497085298E-9</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.4219178845823403E-13</v>
+        <v>4.4148536939557E-12</v>
       </c>
       <c r="B43" t="n">
-        <v>1.1873022691983453</v>
+        <v>1.2081807391050583</v>
       </c>
       <c r="C43" t="n">
-        <v>0.305</v>
+        <v>0.359</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205</v>
+        <v>0.284</v>
       </c>
       <c r="E43" t="n">
-        <v>3.7240029397211494E-9</v>
+        <v>1.1562501824469978E-7</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0</v>
+        <v>3.8353052801125756E-126</v>
       </c>
       <c r="B44" t="n">
-        <v>2.8563874573444203</v>
+        <v>0.9449368943622873</v>
       </c>
       <c r="C44" t="n">
-        <v>0.997</v>
+        <v>0.796</v>
       </c>
       <c r="D44" t="n">
-        <v>0.071</v>
+        <v>0.237</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>1.0044664528614836E-121</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0</v>
+        <v>2.331645480133943E-110</v>
       </c>
       <c r="B45" t="n">
-        <v>2.7726475702650983</v>
+        <v>0.9767161637604755</v>
       </c>
       <c r="C45" t="n">
-        <v>0.943</v>
+        <v>0.957</v>
       </c>
       <c r="D45" t="n">
-        <v>0.042</v>
+        <v>0.378</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>6.106579512470796E-106</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0</v>
+        <v>3.1618999960860903E-103</v>
       </c>
       <c r="B46" t="n">
-        <v>2.704330386546707</v>
+        <v>1.006685467885847</v>
       </c>
       <c r="C46" t="n">
-        <v>0.873</v>
+        <v>0.599</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02</v>
+        <v>0.174</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>8.281016089749471E-99</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0</v>
+        <v>1.0645683242265053E-102</v>
       </c>
       <c r="B47" t="n">
-        <v>2.6383907087118557</v>
+        <v>1.3993743473327025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.876</v>
+        <v>0.599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.025</v>
+        <v>0.167</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>2.7881044411492174E-98</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0</v>
+        <v>3.621709058484362E-92</v>
       </c>
       <c r="B48" t="n">
-        <v>2.6266713085587066</v>
+        <v>1.0175636462320163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.883</v>
+        <v>0.524</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02</v>
+        <v>0.135</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>9.485256024170544E-88</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0</v>
+        <v>1.898763778055205E-67</v>
       </c>
       <c r="B49" t="n">
-        <v>2.6259245557602147</v>
+        <v>0.9910616934491085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.91</v>
+        <v>0.435</v>
       </c>
       <c r="D49" t="n">
-        <v>0.045</v>
+        <v>0.13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>4.972862334726582E-63</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.2027119548174E-142</v>
+        <v>0.0</v>
       </c>
       <c r="B50" t="n">
-        <v>1.715440340371023</v>
+        <v>2.824492403931369</v>
       </c>
       <c r="C50" t="n">
-        <v>0.955</v>
+        <v>0.997</v>
       </c>
       <c r="D50" t="n">
-        <v>0.322</v>
+        <v>0.074</v>
       </c>
       <c r="E50" t="n">
-        <v>5.768902609666771E-138</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.4632974104886104E-129</v>
+        <v>0.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.0940445835836208</v>
+        <v>2.762157212444449</v>
       </c>
       <c r="C51" t="n">
-        <v>0.628</v>
+        <v>0.948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.117</v>
+        <v>0.045</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8323759180696705E-125</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.788534551336383E-107</v>
+        <v>0.0</v>
       </c>
       <c r="B52" t="n">
-        <v>1.678624524606884</v>
+        <v>2.6650830444929587</v>
       </c>
       <c r="C52" t="n">
-        <v>0.579</v>
+        <v>0.871</v>
       </c>
       <c r="D52" t="n">
-        <v>0.111</v>
+        <v>0.02</v>
       </c>
       <c r="E52" t="n">
-        <v>1.7779171989949986E-102</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.414027579697575E-99</v>
+        <v>0.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2.0589739696953346</v>
+        <v>2.6210383940480027</v>
       </c>
       <c r="C53" t="n">
-        <v>0.579</v>
+        <v>0.874</v>
       </c>
       <c r="D53" t="n">
-        <v>0.132</v>
+        <v>0.026</v>
       </c>
       <c r="E53" t="n">
-        <v>8.94133823122795E-95</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.088492986829285E-90</v>
+        <v>0.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2.010000769039924</v>
+        <v>2.614506319174732</v>
       </c>
       <c r="C54" t="n">
-        <v>0.38</v>
+        <v>0.916</v>
       </c>
       <c r="D54" t="n">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
       <c r="E54" t="n">
-        <v>1.8564763132505897E-85</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.458728560983591E-53</v>
+        <v>0.0</v>
       </c>
       <c r="B55" t="n">
-        <v>1.69498758378009</v>
+        <v>2.599965317380782</v>
       </c>
       <c r="C55" t="n">
-        <v>0.269</v>
+        <v>0.885</v>
       </c>
       <c r="D55" t="n">
-        <v>0.046</v>
+        <v>0.021</v>
       </c>
       <c r="E55" t="n">
-        <v>9.058410101216024E-49</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -2081,13 +2081,13 @@
         <v>0.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4.020998581457724</v>
+        <v>3.3331388719275017</v>
       </c>
       <c r="C56" t="n">
-        <v>0.987</v>
+        <v>1.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.021</v>
+        <v>0.044</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
@@ -2096,10 +2096,10 @@
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -2107,13 +2107,13 @@
         <v>0.0</v>
       </c>
       <c r="B57" t="n">
-        <v>3.8460955275527744</v>
+        <v>3.145638365901715</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.015</v>
+        <v>0.037</v>
       </c>
       <c r="E57" t="n">
         <v>0.0</v>
@@ -2122,10 +2122,10 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -2133,13 +2133,13 @@
         <v>0.0</v>
       </c>
       <c r="B58" t="n">
-        <v>3.670167184965928</v>
+        <v>3.0436303107078877</v>
       </c>
       <c r="C58" t="n">
-        <v>0.991</v>
+        <v>1.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="E58" t="n">
         <v>0.0</v>
@@ -2148,10 +2148,10 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -2159,13 +2159,13 @@
         <v>0.0</v>
       </c>
       <c r="B59" t="n">
-        <v>3.627607947199025</v>
+        <v>2.729577802457928</v>
       </c>
       <c r="C59" t="n">
-        <v>0.969</v>
+        <v>0.984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="E59" t="n">
         <v>0.0</v>
@@ -2174,10 +2174,10 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
@@ -2185,13 +2185,13 @@
         <v>0.0</v>
       </c>
       <c r="B60" t="n">
-        <v>3.5056084711141975</v>
+        <v>2.6872149818507323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.991</v>
+        <v>0.976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
@@ -2200,36 +2200,36 @@
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0</v>
+        <v>2.1524824369188017E-225</v>
       </c>
       <c r="B61" t="n">
-        <v>3.4394321390039266</v>
+        <v>3.5940968002423364</v>
       </c>
       <c r="C61" t="n">
-        <v>0.965</v>
+        <v>1.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.011</v>
+        <v>0.318</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0</v>
+        <v>5.637351502290342E-221</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -2237,13 +2237,13 @@
         <v>0.0</v>
       </c>
       <c r="B62" t="n">
-        <v>3.362222051636126</v>
+        <v>3.867248766836389</v>
       </c>
       <c r="C62" t="n">
-        <v>1.0</v>
+        <v>0.594</v>
       </c>
       <c r="D62" t="n">
-        <v>0.044</v>
+        <v>0.004</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
@@ -2252,10 +2252,10 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
@@ -2263,13 +2263,13 @@
         <v>0.0</v>
       </c>
       <c r="B63" t="n">
-        <v>3.1809573633595027</v>
+        <v>3.794166457846332</v>
       </c>
       <c r="C63" t="n">
-        <v>1.0</v>
+        <v>0.518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.038</v>
+        <v>0.005</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
@@ -2278,10 +2278,10 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -2289,13 +2289,13 @@
         <v>0.0</v>
       </c>
       <c r="B64" t="n">
-        <v>3.0504710295600157</v>
+        <v>3.2460154811551085</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0</v>
+        <v>0.647</v>
       </c>
       <c r="D64" t="n">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="E64" t="n">
         <v>0.0</v>
@@ -2304,10 +2304,10 @@
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
@@ -2315,13 +2315,13 @@
         <v>0.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2.687231970696548</v>
+        <v>3.2176243903533317</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987</v>
+        <v>0.562</v>
       </c>
       <c r="D65" t="n">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="E65" t="n">
         <v>0.0</v>
@@ -2333,7 +2333,7 @@
         <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         <v>0.0</v>
       </c>
       <c r="B66" t="n">
-        <v>2.6747817939922367</v>
+        <v>3.169919767422506</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0</v>
+        <v>0.58</v>
       </c>
       <c r="D66" t="n">
-        <v>0.107</v>
+        <v>0.004</v>
       </c>
       <c r="E66" t="n">
         <v>0.0</v>
@@ -2356,36 +2356,36 @@
         <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.7145052429599425E-199</v>
+        <v>8.173389181702323E-104</v>
       </c>
       <c r="B67" t="n">
-        <v>3.547477881306278</v>
+        <v>3.694228638604997</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0</v>
+        <v>0.772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.323</v>
+        <v>0.297</v>
       </c>
       <c r="E67" t="n">
-        <v>1.234728923131209E-194</v>
+        <v>2.1406106266878385E-99</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
@@ -2393,13 +2393,13 @@
         <v>0.0</v>
       </c>
       <c r="B68" t="n">
-        <v>3.840608524442847</v>
+        <v>3.919534867824534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.571</v>
+        <v>0.995</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004</v>
+        <v>0.024</v>
       </c>
       <c r="E68" t="n">
         <v>0.0</v>
@@ -2408,10 +2408,10 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -2419,13 +2419,13 @@
         <v>0.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.801119549008576</v>
+        <v>3.7248936008603186</v>
       </c>
       <c r="C69" t="n">
-        <v>0.498</v>
+        <v>1.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
       <c r="E69" t="n">
         <v>0.0</v>
@@ -2434,10 +2434,10 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -2445,13 +2445,13 @@
         <v>0.0</v>
       </c>
       <c r="B70" t="n">
-        <v>3.220183151680276</v>
+        <v>3.602982915529757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.626</v>
+        <v>1.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003</v>
+        <v>0.016</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
@@ -2460,10 +2460,10 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
@@ -2471,13 +2471,13 @@
         <v>0.0</v>
       </c>
       <c r="B71" t="n">
-        <v>3.2186054871835554</v>
+        <v>3.580209227895952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.539</v>
+        <v>0.99</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
@@ -2486,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
@@ -2497,13 +2497,13 @@
         <v>0.0</v>
       </c>
       <c r="B72" t="n">
-        <v>3.119472584132322</v>
+        <v>3.4368657489172962</v>
       </c>
       <c r="C72" t="n">
-        <v>0.548</v>
+        <v>0.995</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="E72" t="n">
         <v>0.0</v>
@@ -2512,36 +2512,36 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.5382978079616244E-95</v>
+        <v>0.0</v>
       </c>
       <c r="B73" t="n">
-        <v>3.6570165088513957</v>
+        <v>3.375740584775611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.753</v>
+        <v>0.976</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292</v>
+        <v>0.013</v>
       </c>
       <c r="E73" t="n">
-        <v>9.266801959051494E-91</v>
+        <v>0.0</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
@@ -2549,13 +2549,13 @@
         <v>0.0</v>
       </c>
       <c r="B74" t="n">
-        <v>2.6786426355191315</v>
+        <v>2.8762361568895827</v>
       </c>
       <c r="C74" t="n">
-        <v>0.716</v>
+        <v>0.812</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004</v>
+        <v>0.074</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
@@ -2564,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
@@ -2575,13 +2575,13 @@
         <v>0.0</v>
       </c>
       <c r="B75" t="n">
-        <v>2.6161224342303866</v>
+        <v>2.73556064385695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.821</v>
+        <v>0.698</v>
       </c>
       <c r="D75" t="n">
-        <v>0.049</v>
+        <v>0.004</v>
       </c>
       <c r="E75" t="n">
         <v>0.0</v>
@@ -2590,10 +2590,10 @@
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
@@ -2601,13 +2601,13 @@
         <v>0.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2.492316589975959</v>
+        <v>2.6133062254114763</v>
       </c>
       <c r="C76" t="n">
-        <v>0.747</v>
+        <v>0.827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
@@ -2616,10 +2616,10 @@
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
@@ -2627,13 +2627,13 @@
         <v>0.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2.332549974931236</v>
+        <v>2.515021123008154</v>
       </c>
       <c r="C77" t="n">
-        <v>0.768</v>
+        <v>0.733</v>
       </c>
       <c r="D77" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
@@ -2642,62 +2642,62 @@
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8.408074141008587E-306</v>
+        <v>0.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2.887982333263597</v>
+        <v>2.3206208382492832</v>
       </c>
       <c r="C78" t="n">
-        <v>0.816</v>
+        <v>0.777</v>
       </c>
       <c r="D78" t="n">
-        <v>0.072</v>
+        <v>0.048</v>
       </c>
       <c r="E78" t="n">
-        <v>2.202074617530149E-301</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.9143677175647103E-191</v>
+        <v>2.6219336862806383E-198</v>
       </c>
       <c r="B79" t="n">
-        <v>2.541858509051985</v>
+        <v>2.536357871364288</v>
       </c>
       <c r="C79" t="n">
-        <v>0.932</v>
+        <v>0.931</v>
       </c>
       <c r="D79" t="n">
-        <v>0.183</v>
+        <v>0.188</v>
       </c>
       <c r="E79" t="n">
-        <v>5.013729052301976E-187</v>
+        <v>6.866844324368992E-194</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -2705,13 +2705,13 @@
         <v>0.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2.915500100893732</v>
+        <v>2.907913202017074</v>
       </c>
       <c r="C80" t="n">
-        <v>0.688</v>
+        <v>0.677</v>
       </c>
       <c r="D80" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
@@ -2720,10 +2720,10 @@
         <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -2731,13 +2731,13 @@
         <v>0.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2.719227131713491</v>
+        <v>2.699018334288474</v>
       </c>
       <c r="C81" t="n">
-        <v>0.869</v>
+        <v>0.867</v>
       </c>
       <c r="D81" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
@@ -2746,10 +2746,10 @@
         <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -2757,13 +2757,13 @@
         <v>0.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2.596493512377613</v>
+        <v>2.566583657939723</v>
       </c>
       <c r="C82" t="n">
-        <v>0.625</v>
+        <v>0.605</v>
       </c>
       <c r="D82" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
@@ -2772,10 +2772,10 @@
         <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -2783,10 +2783,10 @@
         <v>0.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2.543619984037051</v>
+        <v>2.505541995644147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.545</v>
+        <v>0.544</v>
       </c>
       <c r="D83" t="n">
         <v>0.005</v>
@@ -2798,10 +2798,10 @@
         <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
@@ -2809,10 +2809,10 @@
         <v>0.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2.319967270838196</v>
+        <v>2.2883243646534166</v>
       </c>
       <c r="C84" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="D84" t="n">
         <v>0.002</v>
@@ -2824,10 +2824,10 @@
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
@@ -2835,13 +2835,13 @@
         <v>0.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2.290084088502642</v>
+        <v>2.233071616766738</v>
       </c>
       <c r="C85" t="n">
-        <v>0.648</v>
+        <v>0.646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="E85" t="n">
         <v>0.0</v>
@@ -2850,478 +2850,478 @@
         <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6.018683630216832E-246</v>
+        <v>4.6489119259752713E-281</v>
       </c>
       <c r="B86" t="n">
-        <v>1.9644102980214768</v>
+        <v>2.743334353036404</v>
       </c>
       <c r="C86" t="n">
-        <v>0.629</v>
+        <v>0.636</v>
       </c>
       <c r="D86" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="E86" t="n">
-        <v>1.5762932427537882E-241</v>
+        <v>1.2175500334129237E-276</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.4343566481824665E-193</v>
+        <v>4.4185938546000626E-238</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0023152737262757</v>
+        <v>3.0373244918019138</v>
       </c>
       <c r="C87" t="n">
-        <v>0.886</v>
+        <v>0.552</v>
       </c>
       <c r="D87" t="n">
-        <v>0.112</v>
+        <v>0.03</v>
       </c>
       <c r="E87" t="n">
-        <v>3.75658006158988E-189</v>
+        <v>1.1572297305197565E-233</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.761428261915925E-188</v>
+        <v>2.2548341401286875E-212</v>
       </c>
       <c r="B88" t="n">
-        <v>2.04212687476691</v>
+        <v>2.634440922848255</v>
       </c>
       <c r="C88" t="n">
-        <v>0.832</v>
+        <v>0.552</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111</v>
+        <v>0.033</v>
       </c>
       <c r="E88" t="n">
-        <v>1.5089180617957806E-183</v>
+        <v>5.905410612997032E-208</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.553415897060605E-142</v>
+        <v>9.778446176224996E-188</v>
       </c>
       <c r="B89" t="n">
-        <v>2.0508473472593947</v>
+        <v>2.4939746293426386</v>
       </c>
       <c r="C89" t="n">
-        <v>0.946</v>
+        <v>0.565</v>
       </c>
       <c r="D89" t="n">
-        <v>0.216</v>
+        <v>0.041</v>
       </c>
       <c r="E89" t="n">
-        <v>6.687396234401724E-138</v>
+        <v>2.560975053553326E-183</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.6262039736918013E-135</v>
+        <v>6.012054604038294E-180</v>
       </c>
       <c r="B90" t="n">
-        <v>2.0399179691925835</v>
+        <v>2.6174742047102164</v>
       </c>
       <c r="C90" t="n">
-        <v>0.946</v>
+        <v>0.5</v>
       </c>
       <c r="D90" t="n">
-        <v>0.243</v>
+        <v>0.033</v>
       </c>
       <c r="E90" t="n">
-        <v>4.2590282070988275E-131</v>
+        <v>1.574557100797629E-175</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.0995584798757265E-133</v>
+        <v>1.7390248810183645E-152</v>
       </c>
       <c r="B91" t="n">
-        <v>1.9483595247643195</v>
+        <v>2.6727794008268697</v>
       </c>
       <c r="C91" t="n">
-        <v>0.976</v>
+        <v>0.416</v>
       </c>
       <c r="D91" t="n">
-        <v>0.227</v>
+        <v>0.027</v>
       </c>
       <c r="E91" t="n">
-        <v>2.8797436587945276E-129</v>
+        <v>4.554506163387097E-148</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.025860398975608E-219</v>
+        <v>2.1851954498912755E-211</v>
       </c>
       <c r="B92" t="n">
-        <v>2.6588981718015994</v>
+        <v>2.1157838409511607</v>
       </c>
       <c r="C92" t="n">
-        <v>0.624</v>
+        <v>0.724</v>
       </c>
       <c r="D92" t="n">
-        <v>0.035</v>
+        <v>0.044</v>
       </c>
       <c r="E92" t="n">
-        <v>1.5781728384917118E-214</v>
+        <v>5.72302688326525E-207</v>
       </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.073939290139151E-174</v>
+        <v>3.824016603278657E-181</v>
       </c>
       <c r="B93" t="n">
-        <v>2.9728031890302025</v>
+        <v>2.0945049666439477</v>
       </c>
       <c r="C93" t="n">
-        <v>0.52</v>
+        <v>0.486</v>
       </c>
       <c r="D93" t="n">
-        <v>0.032</v>
+        <v>0.022</v>
       </c>
       <c r="E93" t="n">
-        <v>1.5907647000874438E-169</v>
+        <v>1.0015099483986803E-176</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.4139394683165826E-168</v>
+        <v>9.067908741290822E-131</v>
       </c>
       <c r="B94" t="n">
-        <v>2.6162097615624815</v>
+        <v>2.0050353239512893</v>
       </c>
       <c r="C94" t="n">
-        <v>0.544</v>
+        <v>0.876</v>
       </c>
       <c r="D94" t="n">
-        <v>0.036</v>
+        <v>0.117</v>
       </c>
       <c r="E94" t="n">
-        <v>8.94110746752113E-164</v>
+        <v>2.374885299344066E-126</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.2594123250049437E-128</v>
+        <v>1.8721415714530996E-98</v>
       </c>
       <c r="B95" t="n">
-        <v>2.576387428956003</v>
+        <v>2.2111320369617102</v>
       </c>
       <c r="C95" t="n">
-        <v>0.464</v>
+        <v>0.971</v>
       </c>
       <c r="D95" t="n">
-        <v>0.035</v>
+        <v>0.23</v>
       </c>
       <c r="E95" t="n">
-        <v>8.536400879187947E-124</v>
+        <v>4.903138775635668E-94</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.0531923123627993E-115</v>
+        <v>4.380865491250788E-93</v>
       </c>
       <c r="B96" t="n">
-        <v>2.644668282643754</v>
+        <v>2.096394392303954</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4</v>
+        <v>0.81</v>
       </c>
       <c r="D96" t="n">
-        <v>0.029</v>
+        <v>0.148</v>
       </c>
       <c r="E96" t="n">
-        <v>5.377310666078171E-111</v>
+        <v>1.1473486721585815E-88</v>
       </c>
       <c r="F96" t="s">
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.029240731237476E-52</v>
+        <v>2.2174352467539025E-92</v>
       </c>
       <c r="B97" t="n">
-        <v>2.4335450532471925</v>
+        <v>2.076532863113438</v>
       </c>
       <c r="C97" t="n">
-        <v>0.288</v>
+        <v>0.971</v>
       </c>
       <c r="D97" t="n">
-        <v>0.034</v>
+        <v>0.248</v>
       </c>
       <c r="E97" t="n">
-        <v>1.840958147511095E-47</v>
+        <v>5.80746291124847E-88</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.0</v>
+        <v>1.6346079200608288E-289</v>
       </c>
       <c r="B98" t="n">
-        <v>1.872366153555914</v>
+        <v>2.0091709971415157</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0</v>
+        <v>4.281038142639311E-285</v>
       </c>
       <c r="F98" t="s">
         <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0</v>
+        <v>1.8325649839079387E-147</v>
       </c>
       <c r="B99" t="n">
-        <v>1.8674438819798183</v>
+        <v>2.542395734570867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.444</v>
+        <v>0.357</v>
       </c>
       <c r="D99" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0</v>
+        <v>4.799487692854892E-143</v>
       </c>
       <c r="F99" t="s">
         <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.805234929696991E-155</v>
+        <v>1.4828684208746026E-96</v>
       </c>
       <c r="B100" t="n">
-        <v>2.0868012034383945</v>
+        <v>2.0555730910518144</v>
       </c>
       <c r="C100" t="n">
-        <v>0.254</v>
+        <v>0.786</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004</v>
+        <v>0.035</v>
       </c>
       <c r="E100" t="n">
-        <v>2.044191028087642E-150</v>
+        <v>3.883632394270584E-92</v>
       </c>
       <c r="F100" t="s">
         <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.5523091717653885E-145</v>
+        <v>1.1674002290057357E-81</v>
       </c>
       <c r="B101" t="n">
-        <v>1.872135813655837</v>
+        <v>3.6001706703827967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.651</v>
+        <v>0.321</v>
       </c>
       <c r="D101" t="n">
-        <v>0.033</v>
+        <v>0.006</v>
       </c>
       <c r="E101" t="n">
-        <v>4.065497720853552E-141</v>
+        <v>3.0574211997660216E-77</v>
       </c>
       <c r="F101" t="s">
         <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4.2603859609120377E-94</v>
+        <v>2.2793391227713E-55</v>
       </c>
       <c r="B102" t="n">
-        <v>2.1095105617088157</v>
+        <v>3.949994727617209</v>
       </c>
       <c r="C102" t="n">
-        <v>0.54</v>
+        <v>0.321</v>
       </c>
       <c r="D102" t="n">
-        <v>0.037</v>
+        <v>0.01</v>
       </c>
       <c r="E102" t="n">
-        <v>1.1157950831628627E-89</v>
+        <v>5.969589162538034E-51</v>
       </c>
       <c r="F102" t="s">
         <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.457751274948054E-80</v>
+        <v>6.513491344185124E-47</v>
       </c>
       <c r="B103" t="n">
-        <v>1.960622627974163</v>
+        <v>2.27754265098842</v>
       </c>
       <c r="C103" t="n">
-        <v>0.857</v>
+        <v>0.964</v>
       </c>
       <c r="D103" t="n">
-        <v>0.119</v>
+        <v>0.126</v>
       </c>
       <c r="E103" t="n">
-        <v>1.1674850589088953E-75</v>
+        <v>1.705883383042084E-42</v>
       </c>
       <c r="F103" t="s">
         <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
@@ -3329,10 +3329,10 @@
         <v>0.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.240641876511527</v>
+        <v>3.234857395478562</v>
       </c>
       <c r="C104" t="n">
-        <v>0.944</v>
+        <v>0.947</v>
       </c>
       <c r="D104" t="n">
         <v>0.002</v>
@@ -3344,10 +3344,10 @@
         <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
@@ -3355,10 +3355,10 @@
         <v>0.0</v>
       </c>
       <c r="B105" t="n">
-        <v>3.1273208995688675</v>
+        <v>3.0251405584532063</v>
       </c>
       <c r="C105" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="D105" t="n">
         <v>0.001</v>
@@ -3370,10 +3370,10 @@
         <v>25</v>
       </c>
       <c r="G105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -3381,13 +3381,13 @@
         <v>0.0</v>
       </c>
       <c r="B106" t="n">
-        <v>2.900759447273148</v>
+        <v>2.901726132917025</v>
       </c>
       <c r="C106" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E106" t="n">
         <v>0.0</v>
@@ -3396,44 +3396,44 @@
         <v>25</v>
       </c>
       <c r="G106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6.103315330065223E-253</v>
+        <v>6.531852244546278E-272</v>
       </c>
       <c r="B107" t="n">
-        <v>2.919714779996626</v>
+        <v>2.888039960598258</v>
       </c>
       <c r="C107" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="D107" t="n">
         <v>0.01</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5984582849440819E-248</v>
+        <v>1.7106921028466703E-267</v>
       </c>
       <c r="F107" t="s">
         <v>25</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.677458236259342E-206</v>
+        <v>8.798742480890213E-217</v>
       </c>
       <c r="B108" t="n">
-        <v>3.107355067513377</v>
+        <v>3.0866784312683686</v>
       </c>
       <c r="C108" t="n">
         <v>1.0</v>
@@ -3442,42 +3442,42 @@
         <v>0.017</v>
       </c>
       <c r="E108" t="n">
-        <v>7.012263120763216E-202</v>
+        <v>2.3043906557451467E-212</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.6257387857773764E-22</v>
+        <v>6.759993015945139E-23</v>
       </c>
       <c r="B109" t="n">
-        <v>3.042578082413167</v>
+        <v>2.9938141757279513</v>
       </c>
       <c r="C109" t="n">
         <v>1.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.23</v>
+        <v>0.238</v>
       </c>
       <c r="E109" t="n">
-        <v>6.876809879950949E-18</v>
+        <v>1.7704421708760317E-18</v>
       </c>
       <c r="F109" t="s">
         <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3498,208 +3498,208 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>479.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>299.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>167.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>219.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>514.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>190.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>228.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>125.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1117.0</v>
+        <v>1123.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>864.0</v>
+        <v>1081.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>771.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>440.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>1342.0</v>
+        <v>1057.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>242.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>224.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>176.0</v>
+        <v>195.0</v>
       </c>
     </row>
   </sheetData>
@@ -3743,487 +3743,487 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.5911043611706922E-191</v>
+        <v>2.4698592716652142E-110</v>
       </c>
       <c r="B2" t="n">
-        <v>1.246433954125129</v>
+        <v>1.362075621803355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.862</v>
+        <v>0.838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.122</v>
+        <v>0.234</v>
       </c>
       <c r="E2" t="n">
-        <v>6.786102321906043E-187</v>
+        <v>6.468561432491196E-106</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.731159545129902E-174</v>
+        <v>4.493106829496958E-70</v>
       </c>
       <c r="B3" t="n">
-        <v>1.268436834408794</v>
+        <v>0.9831268527353914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.986</v>
+        <v>0.489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.112</v>
       </c>
       <c r="E3" t="n">
-        <v>7.152906848695214E-170</v>
+        <v>1.1767446786452534E-65</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.230169134593263E-161</v>
+        <v>7.212887148559962E-70</v>
       </c>
       <c r="B4" t="n">
-        <v>1.3404363793208187</v>
+        <v>0.7835997946004994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.983</v>
+        <v>0.676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249</v>
+        <v>0.192</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3697812963499757E-156</v>
+        <v>1.8890551442078543E-65</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1139081944644615E-115</v>
+        <v>3.4464369167305765E-65</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0533330447078237</v>
+        <v>0.889892838019267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.968</v>
+        <v>0.355</v>
       </c>
       <c r="D5" t="n">
-        <v>0.433</v>
+        <v>0.057</v>
       </c>
       <c r="E5" t="n">
-        <v>2.9173255613024246E-111</v>
+        <v>9.026218284917379E-61</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.504593380870794E-110</v>
+        <v>4.713889738522091E-54</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0786921563314151</v>
+        <v>0.7700660681112212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="D6" t="n">
-        <v>0.415</v>
+        <v>0.437</v>
       </c>
       <c r="E6" t="n">
-        <v>1.441653006450061E-105</v>
+        <v>1.2345677225189356E-49</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.182992048527369E-92</v>
+        <v>2.0995515274360397E-48</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9083014964740692</v>
+        <v>0.7637221395499127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.877</v>
+        <v>0.548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.306</v>
+        <v>0.186</v>
       </c>
       <c r="E7" t="n">
-        <v>2.143125617509318E-87</v>
+        <v>5.498725450354988E-44</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.269550516715195E-173</v>
+        <v>1.8745013625476268E-134</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2053234543095352</v>
+        <v>1.7595778517526308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.875</v>
+        <v>0.937</v>
       </c>
       <c r="D8" t="n">
-        <v>0.149</v>
+        <v>0.279</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1181952803277096E-168</v>
+        <v>4.909319068512234E-130</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.822483167796512E-143</v>
+        <v>2.947959945196512E-128</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0690481919956447</v>
+        <v>1.5072892348742846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.924</v>
+        <v>0.904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207</v>
+        <v>0.246</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7868083416459063E-138</v>
+        <v>7.720707096469665E-124</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.1437517276758306E-122</v>
+        <v>1.4595751655346537E-41</v>
       </c>
       <c r="B10" t="n">
-        <v>1.1643145628861067</v>
+        <v>0.9930094241962135</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.53</v>
       </c>
       <c r="D10" t="n">
-        <v>0.77</v>
+        <v>0.194</v>
       </c>
       <c r="E10" t="n">
-        <v>2.9954857747830004E-118</v>
+        <v>3.822627358535258E-37</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.5714687730737993E-97</v>
+        <v>3.745376259070145E-39</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9737584277014075</v>
+        <v>0.8098061155058667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.858</v>
+        <v>0.8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.294</v>
+        <v>0.51</v>
       </c>
       <c r="E11" t="n">
-        <v>6.73467671668028E-93</v>
+        <v>9.80914042250471E-35</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.196414607119973E-91</v>
+        <v>3.263645006937339E-33</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0036734191491146</v>
+        <v>0.9359850273338108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.721</v>
+        <v>0.33</v>
       </c>
       <c r="D12" t="n">
-        <v>0.195</v>
+        <v>0.097</v>
       </c>
       <c r="E12" t="n">
-        <v>3.133409856047209E-87</v>
+        <v>8.547486273168891E-29</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.6345727792838536E-90</v>
+        <v>8.085531674403451E-28</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9813121013819002</v>
+        <v>0.7912186494087712</v>
       </c>
       <c r="C13" t="n">
-        <v>0.971</v>
+        <v>0.67</v>
       </c>
       <c r="D13" t="n">
-        <v>0.561</v>
+        <v>0.424</v>
       </c>
       <c r="E13" t="n">
-        <v>9.518946108944412E-86</v>
+        <v>2.117600745526264E-23</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.3192583097530561E-118</v>
+        <v>1.2332338010566745E-138</v>
       </c>
       <c r="B14" t="n">
-        <v>1.3206047939663241</v>
+        <v>1.1711711432938943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.906</v>
+        <v>0.875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267</v>
+        <v>0.157</v>
       </c>
       <c r="E14" t="n">
-        <v>3.455137513243254E-114</v>
+        <v>3.2298393249674304E-134</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.518861686061674E-112</v>
+        <v>4.2240575765231427E-137</v>
       </c>
       <c r="B15" t="n">
-        <v>1.1692992875237507</v>
+        <v>1.3080527590730207</v>
       </c>
       <c r="C15" t="n">
-        <v>0.858</v>
+        <v>0.988</v>
       </c>
       <c r="D15" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5968987557955244E-108</v>
+        <v>1.1062806792914111E-132</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.422872615705771E-46</v>
+        <v>1.3850473779287941E-126</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8253513783391077</v>
+        <v>1.3586368824837747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.533</v>
+        <v>0.992</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18</v>
+        <v>0.278</v>
       </c>
       <c r="E16" t="n">
-        <v>1.9440503380533414E-41</v>
+        <v>3.6274390827955116E-122</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.31173717051152E-31</v>
+        <v>1.5343158552368765E-92</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7618223786563132</v>
+        <v>1.045238074904274</v>
       </c>
       <c r="C17" t="n">
-        <v>0.306</v>
+        <v>0.976</v>
       </c>
       <c r="D17" t="n">
-        <v>0.093</v>
+        <v>0.464</v>
       </c>
       <c r="E17" t="n">
-        <v>1.653043964956967E-26</v>
+        <v>4.0183732248653796E-88</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0341701097152297E-27</v>
+        <v>5.894771623707273E-88</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6713452200746606</v>
+        <v>1.0266184284461908</v>
       </c>
       <c r="C18" t="n">
-        <v>0.555</v>
+        <v>0.988</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295</v>
+        <v>0.494</v>
       </c>
       <c r="E18" t="n">
-        <v>2.7084915173441864E-23</v>
+        <v>1.5438406882489349E-83</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.833144734815072E-22</v>
+        <v>4.760156487381089E-84</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7196247463454066</v>
+        <v>1.0477666112611634</v>
       </c>
       <c r="C19" t="n">
-        <v>0.379</v>
+        <v>0.984</v>
       </c>
       <c r="D19" t="n">
-        <v>0.176</v>
+        <v>0.445</v>
       </c>
       <c r="E19" t="n">
-        <v>4.801006060480674E-18</v>
+        <v>1.2466849840451074E-79</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.10199807767234E-88</v>
+        <v>1.0529623453866971E-126</v>
       </c>
       <c r="B20" t="n">
-        <v>1.224305385787473</v>
+        <v>1.0386488032955556</v>
       </c>
       <c r="C20" t="n">
-        <v>0.844</v>
+        <v>0.912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244</v>
+        <v>0.181</v>
       </c>
       <c r="E20" t="n">
-        <v>2.8861329654238585E-84</v>
+        <v>2.75770838256776E-122</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -4232,102 +4232,102 @@
         <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.169352038061947E-74</v>
+        <v>4.684624472519459E-109</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0373847341039217</v>
+        <v>1.1913932708087591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.532</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.111</v>
+        <v>0.784</v>
       </c>
       <c r="E21" t="n">
-        <v>1.3538532987684239E-69</v>
+        <v>1.2269031493528463E-104</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.949875095649928E-72</v>
+        <v>4.4760745399291026E-85</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9515769404812837</v>
+        <v>0.9662162335112725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399</v>
+        <v>0.94</v>
       </c>
       <c r="D22" t="n">
-        <v>0.057</v>
+        <v>0.32</v>
       </c>
       <c r="E22" t="n">
-        <v>1.558272287550716E-67</v>
+        <v>1.172283922007432E-80</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.675926080386983E-54</v>
+        <v>3.148184973210827E-84</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8284389012863602</v>
+        <v>1.0420703466144583</v>
       </c>
       <c r="C23" t="n">
-        <v>0.882</v>
+        <v>0.996</v>
       </c>
       <c r="D23" t="n">
-        <v>0.433</v>
+        <v>0.573</v>
       </c>
       <c r="E23" t="n">
-        <v>7.008250404533508E-50</v>
+        <v>8.245096444839156E-80</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.9948322175837127E-48</v>
+        <v>2.1265457949188655E-71</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7726344924066858</v>
+        <v>0.9375482160032194</v>
       </c>
       <c r="C24" t="n">
-        <v>0.578</v>
+        <v>0.988</v>
       </c>
       <c r="D24" t="n">
-        <v>0.182</v>
+        <v>0.445</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0462465577851743E-43</v>
+        <v>5.5694234368925084E-67</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -4336,501 +4336,501 @@
         <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.375990747996649E-41</v>
+        <v>5.1885072501222E-67</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7784229165236043</v>
+        <v>0.9577426269648472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.772</v>
+        <v>0.848</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366</v>
+        <v>0.295</v>
       </c>
       <c r="E25" t="n">
-        <v>1.6698719769003225E-36</v>
+        <v>1.358870048807004E-62</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0</v>
+        <v>4.366563706091362E-87</v>
       </c>
       <c r="B26" t="n">
-        <v>3.5956451039998814</v>
+        <v>1.0246114870773515</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.072</v>
+        <v>0.177</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.1436030346253277E-82</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0</v>
+        <v>2.01547811156684E-83</v>
       </c>
       <c r="B27" t="n">
-        <v>3.4213714830906943</v>
+        <v>0.9364716632269281</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.963</v>
       </c>
       <c r="D27" t="n">
-        <v>0.059</v>
+        <v>0.256</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>5.2785371741935544E-79</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0</v>
+        <v>5.8023086882310865E-83</v>
       </c>
       <c r="B28" t="n">
-        <v>3.024602799837873</v>
+        <v>1.0082545766206645</v>
       </c>
       <c r="C28" t="n">
         <v>0.982</v>
       </c>
       <c r="D28" t="n">
-        <v>0.059</v>
+        <v>0.291</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>1.5196246454477216E-78</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.0407606664044863E-267</v>
+        <v>8.919593831123726E-56</v>
       </c>
       <c r="B29" t="n">
-        <v>3.464404170392017</v>
+        <v>0.9102876075808526</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.977</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115</v>
+        <v>0.526</v>
       </c>
       <c r="E29" t="n">
-        <v>2.7257521853133497E-263</v>
+        <v>2.3360416243713037E-51</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.057198664388865E-267</v>
+        <v>2.7802738515852633E-49</v>
       </c>
       <c r="B30" t="n">
-        <v>3.182151723689113</v>
+        <v>0.8196983230380097</v>
       </c>
       <c r="C30" t="n">
-        <v>0.995</v>
+        <v>0.935</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115</v>
+        <v>0.449</v>
       </c>
       <c r="E30" t="n">
-        <v>2.1101803302034438E-262</v>
+        <v>7.281537217301804E-45</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.839334937612114E-228</v>
+        <v>2.0562867844178288E-39</v>
       </c>
       <c r="B31" t="n">
-        <v>3.1388399003148866</v>
+        <v>0.7734029756433713</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>0.539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164</v>
+        <v>0.175</v>
       </c>
       <c r="E31" t="n">
-        <v>1.5293218201606126E-223</v>
+        <v>5.385415088390294E-35</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.464718542136334E-84</v>
+        <v>0.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.3687833010020225</v>
+        <v>3.542840030941334</v>
       </c>
       <c r="C32" t="n">
-        <v>0.977</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.597</v>
+        <v>0.076</v>
       </c>
       <c r="E32" t="n">
-        <v>1.6931097861855058E-79</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.857184550219645E-83</v>
+        <v>0.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1.3723900396659587</v>
+        <v>3.5120172059763086</v>
       </c>
       <c r="C33" t="n">
-        <v>0.916</v>
+        <v>1.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.468</v>
+        <v>0.059</v>
       </c>
       <c r="E33" t="n">
-        <v>2.057796633702525E-78</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.000181057573021E-81</v>
+        <v>3.628250319148839E-270</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2907175702562834</v>
+        <v>3.5563365030200007</v>
       </c>
       <c r="C34" t="n">
-        <v>0.949</v>
+        <v>1.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.56</v>
+        <v>0.112</v>
       </c>
       <c r="E34" t="n">
-        <v>7.857474189783742E-77</v>
+        <v>9.502387585850809E-266</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.992765672257502E-74</v>
+        <v>3.500823117765861E-263</v>
       </c>
       <c r="B35" t="n">
-        <v>1.3041666495070068</v>
+        <v>3.1737602267183087</v>
       </c>
       <c r="C35" t="n">
-        <v>0.912</v>
+        <v>0.986</v>
       </c>
       <c r="D35" t="n">
-        <v>0.502</v>
+        <v>0.112</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5695053295642398E-69</v>
+        <v>9.16865574542879E-259</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.6323184618421448E-72</v>
+        <v>1.8786859841681636E-224</v>
       </c>
       <c r="B36" t="n">
-        <v>1.3999186936019785</v>
+        <v>3.2328766224242744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.888</v>
+        <v>1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.496</v>
+        <v>0.166</v>
       </c>
       <c r="E36" t="n">
-        <v>4.275042051564577E-68</v>
+        <v>4.92027859253642E-220</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.064575657417672E-55</v>
+        <v>1.323856253696308E-155</v>
       </c>
       <c r="B37" t="n">
-        <v>1.2731328531505994</v>
+        <v>3.0235947982011218</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.547</v>
+        <v>0.361</v>
       </c>
       <c r="E37" t="n">
-        <v>1.8502123646776883E-50</v>
+        <v>3.467179528430631E-151</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0</v>
+        <v>2.5084140300669915E-88</v>
       </c>
       <c r="B38" t="n">
-        <v>4.272076424479824</v>
+        <v>1.5104754344964983</v>
       </c>
       <c r="C38" t="n">
-        <v>0.994</v>
+        <v>0.863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.049</v>
+        <v>0.262</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>6.569536344745451E-84</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0</v>
+        <v>9.312123517101591E-76</v>
       </c>
       <c r="B39" t="n">
-        <v>3.7954884939407716</v>
+        <v>1.3724155855688176</v>
       </c>
       <c r="C39" t="n">
-        <v>0.994</v>
+        <v>0.737</v>
       </c>
       <c r="D39" t="n">
-        <v>0.046</v>
+        <v>0.211</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>2.4388451491289066E-71</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0</v>
+        <v>6.915769996754038E-74</v>
       </c>
       <c r="B40" t="n">
-        <v>3.6618905328165683</v>
+        <v>1.1070501113553064</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>0.995</v>
       </c>
       <c r="D40" t="n">
-        <v>0.023</v>
+        <v>0.703</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>1.8112401621498827E-69</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.640063681343022E-218</v>
+        <v>9.054856353299699E-72</v>
       </c>
       <c r="B41" t="n">
-        <v>3.7734373578954394</v>
+        <v>1.2825733405422055</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>0.922</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13</v>
+        <v>0.462</v>
       </c>
       <c r="E41" t="n">
-        <v>4.295326781437375E-214</v>
+        <v>2.3714668789291913E-67</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.8685540940818816E-211</v>
+        <v>1.2322702262087308E-68</v>
       </c>
       <c r="B42" t="n">
-        <v>3.5834739055474065</v>
+        <v>1.2558394932468762</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0</v>
+        <v>0.985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.138</v>
+        <v>0.589</v>
       </c>
       <c r="E42" t="n">
-        <v>4.893743172400448E-207</v>
+        <v>3.227315722440666E-64</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.0266598761565211E-123</v>
+        <v>6.115106224749096E-52</v>
       </c>
       <c r="B43" t="n">
-        <v>5.179206002929641</v>
+        <v>1.1876139530230023</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>0.863</v>
       </c>
       <c r="D43" t="n">
-        <v>0.415</v>
+        <v>0.492</v>
       </c>
       <c r="E43" t="n">
-        <v>2.688822215653929E-119</v>
+        <v>1.6015463202617883E-47</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
@@ -4838,13 +4838,13 @@
         <v>0.0</v>
       </c>
       <c r="B44" t="n">
-        <v>4.598096645287753</v>
+        <v>4.243656692080023</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.026</v>
+        <v>0.05</v>
       </c>
       <c r="E44" t="n">
         <v>0.0</v>
@@ -4853,10 +4853,10 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -4864,13 +4864,13 @@
         <v>0.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4.46720156173723</v>
+        <v>3.745106749298524</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009</v>
+        <v>0.046</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
@@ -4879,10 +4879,10 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -4890,13 +4890,13 @@
         <v>0.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4.271877289726887</v>
+        <v>3.679106984323351</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.012</v>
+        <v>0.021</v>
       </c>
       <c r="E46" t="n">
         <v>0.0</v>
@@ -4905,88 +4905,88 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0</v>
+        <v>1.497773408700025E-246</v>
       </c>
       <c r="B47" t="n">
-        <v>4.053944997097585</v>
+        <v>3.891457065525249</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007</v>
+        <v>0.125</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>3.9226685573853655E-242</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0</v>
+        <v>7.744116024606469E-230</v>
       </c>
       <c r="B48" t="n">
-        <v>3.9808160097546943</v>
+        <v>3.590598289146228</v>
       </c>
       <c r="C48" t="n">
-        <v>0.986</v>
+        <v>1.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.016</v>
+        <v>0.144</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>2.0281839868444342E-225</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0</v>
+        <v>6.756758633337541E-141</v>
       </c>
       <c r="B49" t="n">
-        <v>3.863541714558636</v>
+        <v>5.284128166751017</v>
       </c>
       <c r="C49" t="n">
-        <v>0.986</v>
+        <v>1.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006</v>
+        <v>0.411</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>1.769595086071102E-136</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -4994,13 +4994,13 @@
         <v>0.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2.808925132545202</v>
+        <v>4.613310834437234</v>
       </c>
       <c r="C50" t="n">
-        <v>0.756</v>
+        <v>1.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006</v>
+        <v>0.026</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
@@ -5009,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
         <v>128</v>
@@ -5017,25 +5017,25 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.712822511221994E-290</v>
+        <v>0.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.792371938484496</v>
+        <v>4.4630484003161905</v>
       </c>
       <c r="C51" t="n">
-        <v>0.744</v>
+        <v>1.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="E51" t="n">
-        <v>2.54378821568904E-285</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s">
         <v>128</v>
@@ -5043,25 +5043,25 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.1705488897717862E-207</v>
+        <v>0.0</v>
       </c>
       <c r="B52" t="n">
-        <v>2.3000616682687656</v>
+        <v>4.302991011406188</v>
       </c>
       <c r="C52" t="n">
-        <v>0.854</v>
+        <v>1.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.036</v>
+        <v>0.011</v>
       </c>
       <c r="E52" t="n">
-        <v>5.684667542312308E-203</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
         <v>128</v>
@@ -5069,25 +5069,25 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.532415737314753E-187</v>
+        <v>0.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2.8535986044710597</v>
+        <v>4.052989020020794</v>
       </c>
       <c r="C53" t="n">
-        <v>0.854</v>
+        <v>1.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.044</v>
+        <v>0.008</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9727396816027337E-182</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
         <v>128</v>
@@ -5095,25 +5095,25 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.3032581710538705E-141</v>
+        <v>0.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2.804157251261034</v>
+        <v>3.9976671096667435</v>
       </c>
       <c r="C54" t="n">
-        <v>0.951</v>
+        <v>1.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.089</v>
+        <v>0.016</v>
       </c>
       <c r="E54" t="n">
-        <v>6.032233149990087E-137</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s">
         <v>128</v>
@@ -5121,25 +5121,25 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.677028329950033E-31</v>
+        <v>0.0</v>
       </c>
       <c r="B55" t="n">
-        <v>2.2880372434876968</v>
+        <v>3.864834448765387</v>
       </c>
       <c r="C55" t="n">
-        <v>0.659</v>
+        <v>0.986</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212</v>
+        <v>0.005</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2249137196139137E-26</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s">
         <v>128</v>
@@ -5150,13 +5150,13 @@
         <v>0.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2.6739168068008894</v>
+        <v>2.8820409059126253</v>
       </c>
       <c r="C56" t="n">
-        <v>0.851</v>
+        <v>0.793</v>
       </c>
       <c r="D56" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
@@ -5165,140 +5165,140 @@
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.6500765911520235E-241</v>
+        <v>4.5418407325550497E-302</v>
       </c>
       <c r="B57" t="n">
-        <v>2.935794734973925</v>
+        <v>2.720183096253337</v>
       </c>
       <c r="C57" t="n">
-        <v>0.932</v>
+        <v>0.75</v>
       </c>
       <c r="D57" t="n">
-        <v>0.032</v>
+        <v>0.01</v>
       </c>
       <c r="E57" t="n">
-        <v>1.217855059222715E-236</v>
+        <v>1.1895080878561676E-297</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.046799981162431E-133</v>
+        <v>1.3652982675406785E-210</v>
       </c>
       <c r="B58" t="n">
-        <v>2.261562922134436</v>
+        <v>2.3042699733079766</v>
       </c>
       <c r="C58" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="D58" t="n">
-        <v>0.067</v>
+        <v>0.041</v>
       </c>
       <c r="E58" t="n">
-        <v>2.7415691506644068E-129</v>
+        <v>3.575716162689037E-206</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.0394022029305E-125</v>
+        <v>6.241106546269974E-167</v>
       </c>
       <c r="B59" t="n">
-        <v>2.3105041937624833</v>
+        <v>2.74761804610262</v>
       </c>
       <c r="C59" t="n">
-        <v>0.946</v>
+        <v>0.804</v>
       </c>
       <c r="D59" t="n">
-        <v>0.094</v>
+        <v>0.05</v>
       </c>
       <c r="E59" t="n">
-        <v>7.960194369474979E-121</v>
+        <v>1.6345458044681062E-162</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="H59" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.5930535263443322E-84</v>
+        <v>1.8195343107776806E-150</v>
       </c>
       <c r="B60" t="n">
-        <v>2.6749010452947015</v>
+        <v>2.7483335819313703</v>
       </c>
       <c r="C60" t="n">
-        <v>0.986</v>
+        <v>0.978</v>
       </c>
       <c r="D60" t="n">
-        <v>0.192</v>
+        <v>0.099</v>
       </c>
       <c r="E60" t="n">
-        <v>4.172207185495806E-80</v>
+        <v>4.765360359926746E-146</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.1369783292782067E-52</v>
+        <v>2.91315727086103E-29</v>
       </c>
       <c r="B61" t="n">
-        <v>2.2653106606530455</v>
+        <v>2.1955225330138406</v>
       </c>
       <c r="C61" t="n">
-        <v>0.986</v>
+        <v>0.63</v>
       </c>
       <c r="D61" t="n">
-        <v>0.456</v>
+        <v>0.218</v>
       </c>
       <c r="E61" t="n">
-        <v>5.596746244379623E-48</v>
+        <v>7.629558892385037E-25</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -5306,13 +5306,13 @@
         <v>0.0</v>
       </c>
       <c r="B62" t="n">
-        <v>4.153428096787411</v>
+        <v>2.596720492362681</v>
       </c>
       <c r="C62" t="n">
-        <v>0.838</v>
+        <v>0.827</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
@@ -5321,10 +5321,10 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -5332,13 +5332,13 @@
         <v>0.0</v>
       </c>
       <c r="B63" t="n">
-        <v>3.469691126624177</v>
+        <v>2.2488803464621396</v>
       </c>
       <c r="C63" t="n">
-        <v>0.941</v>
+        <v>0.679</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006</v>
+        <v>0.0</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
@@ -5347,137 +5347,137 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0</v>
+        <v>1.7664163978710273E-252</v>
       </c>
       <c r="B64" t="n">
-        <v>3.40283546901286</v>
+        <v>2.9277368487967226</v>
       </c>
       <c r="C64" t="n">
-        <v>0.809</v>
+        <v>0.938</v>
       </c>
       <c r="D64" t="n">
-        <v>0.005</v>
+        <v>0.033</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>4.6262445460242204E-248</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.282297994100973E-283</v>
+        <v>3.710792659528671E-136</v>
       </c>
       <c r="B65" t="n">
-        <v>3.187238413725608</v>
+        <v>2.3530544944766425</v>
       </c>
       <c r="C65" t="n">
-        <v>0.735</v>
+        <v>0.951</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008</v>
+        <v>0.095</v>
       </c>
       <c r="E65" t="n">
-        <v>8.596338446550448E-279</v>
+        <v>9.718565975305589E-132</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.214934825099419E-245</v>
+        <v>1.8750888471857718E-87</v>
       </c>
       <c r="B66" t="n">
-        <v>3.493936625241354</v>
+        <v>2.6140743606319674</v>
       </c>
       <c r="C66" t="n">
-        <v>0.824</v>
+        <v>0.975</v>
       </c>
       <c r="D66" t="n">
-        <v>0.019</v>
+        <v>0.196</v>
       </c>
       <c r="E66" t="n">
-        <v>1.365791430693538E-240</v>
+        <v>4.9108576907795366E-83</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.6570218697105576E-34</v>
+        <v>3.235828933168219E-56</v>
       </c>
       <c r="B67" t="n">
-        <v>3.7974614825582</v>
+        <v>2.2460880175193605</v>
       </c>
       <c r="C67" t="n">
-        <v>0.926</v>
+        <v>0.988</v>
       </c>
       <c r="D67" t="n">
-        <v>0.626</v>
+        <v>0.467</v>
       </c>
       <c r="E67" t="n">
-        <v>6.95874027677195E-30</v>
+        <v>8.474635975967566E-52</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="H67" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.2113240988373548E-184</v>
+        <v>0.0</v>
       </c>
       <c r="B68" t="n">
-        <v>2.736781690443786</v>
+        <v>4.1750830437789785</v>
       </c>
       <c r="C68" t="n">
-        <v>0.828</v>
+        <v>0.877</v>
       </c>
       <c r="D68" t="n">
-        <v>0.031</v>
+        <v>0.007</v>
       </c>
       <c r="E68" t="n">
-        <v>3.172457814855032E-180</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
         <v>127</v>
@@ -5485,25 +5485,25 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.876280305033453E-98</v>
+        <v>0.0</v>
       </c>
       <c r="B69" t="n">
-        <v>2.9597189620012476</v>
+        <v>3.538031723666966</v>
       </c>
       <c r="C69" t="n">
-        <v>0.938</v>
+        <v>0.973</v>
       </c>
       <c r="D69" t="n">
-        <v>0.113</v>
+        <v>0.005</v>
       </c>
       <c r="E69" t="n">
-        <v>7.532978118882614E-94</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
         <v>127</v>
@@ -5511,25 +5511,25 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.5096781748042243E-84</v>
+        <v>0.0</v>
       </c>
       <c r="B70" t="n">
-        <v>2.952561415500911</v>
+        <v>3.4426776177336875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.953</v>
+        <v>0.877</v>
       </c>
       <c r="D70" t="n">
-        <v>0.153</v>
+        <v>0.006</v>
       </c>
       <c r="E70" t="n">
-        <v>9.191847139812264E-80</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
         <v>127</v>
@@ -5537,25 +5537,25 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.4739340454092373E-48</v>
+        <v>3.397768457994686E-273</v>
       </c>
       <c r="B71" t="n">
-        <v>2.6945744225369017</v>
+        <v>3.178381505782491</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0</v>
+        <v>0.74</v>
       </c>
       <c r="D71" t="n">
-        <v>0.433</v>
+        <v>0.01</v>
       </c>
       <c r="E71" t="n">
-        <v>3.8602332649267926E-44</v>
+        <v>8.898755591488082E-269</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H71" t="s">
         <v>127</v>
@@ -5563,25 +5563,25 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.3595921619566466E-47</v>
+        <v>1.5421506963059852E-272</v>
       </c>
       <c r="B72" t="n">
-        <v>2.636831052691038</v>
+        <v>3.4938097516652533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.938</v>
+        <v>0.863</v>
       </c>
       <c r="D72" t="n">
-        <v>0.326</v>
+        <v>0.019</v>
       </c>
       <c r="E72" t="n">
-        <v>3.5607718721644573E-43</v>
+        <v>4.038892673625375E-268</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s">
         <v>127</v>
@@ -5589,25 +5589,25 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.782912236754547E-42</v>
+        <v>2.145168232298666E-40</v>
       </c>
       <c r="B73" t="n">
-        <v>2.5841583394766414</v>
+        <v>3.875349104076652</v>
       </c>
       <c r="C73" t="n">
-        <v>1.0</v>
+        <v>0.945</v>
       </c>
       <c r="D73" t="n">
-        <v>0.665</v>
+        <v>0.625</v>
       </c>
       <c r="E73" t="n">
-        <v>1.514544714806016E-37</v>
+        <v>5.618195600390206E-36</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
         <v>127</v>
@@ -5615,71 +5615,71 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.834112890140731E-74</v>
+        <v>1.1487593663232938E-188</v>
       </c>
       <c r="B74" t="n">
-        <v>2.069934417408213</v>
+        <v>2.764829202026438</v>
       </c>
       <c r="C74" t="n">
-        <v>0.796</v>
+        <v>0.833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.082</v>
+        <v>0.032</v>
       </c>
       <c r="E74" t="n">
-        <v>4.803541659278574E-70</v>
+        <v>3.0086007804007066E-184</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.898990200000182E-65</v>
+        <v>2.2111677900108784E-102</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0973174565162735</v>
+        <v>2.9667327310340132</v>
       </c>
       <c r="C75" t="n">
-        <v>0.926</v>
+        <v>0.939</v>
       </c>
       <c r="D75" t="n">
-        <v>0.133</v>
+        <v>0.112</v>
       </c>
       <c r="E75" t="n">
-        <v>1.2830455333800476E-60</v>
+        <v>5.7910484420384905E-98</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.138173326624527E-55</v>
+        <v>1.1294796282646732E-89</v>
       </c>
       <c r="B76" t="n">
-        <v>1.9001995050855336</v>
+        <v>2.9796179698481318</v>
       </c>
       <c r="C76" t="n">
-        <v>0.519</v>
+        <v>0.955</v>
       </c>
       <c r="D76" t="n">
-        <v>0.044</v>
+        <v>0.147</v>
       </c>
       <c r="E76" t="n">
-        <v>8.218875942429636E-51</v>
+        <v>2.958107146425179E-85</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -5688,180 +5688,180 @@
         <v>161</v>
       </c>
       <c r="H76" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.2122884210546736E-49</v>
+        <v>1.3331051539734817E-74</v>
       </c>
       <c r="B77" t="n">
-        <v>2.0385120114709423</v>
+        <v>2.5628342056206828</v>
       </c>
       <c r="C77" t="n">
-        <v>0.944</v>
+        <v>0.894</v>
       </c>
       <c r="D77" t="n">
-        <v>0.219</v>
+        <v>0.149</v>
       </c>
       <c r="E77" t="n">
-        <v>5.79398337474219E-45</v>
+        <v>3.491402398256549E-70</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H77" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.481922540789272E-39</v>
+        <v>2.752809139602777E-49</v>
       </c>
       <c r="B78" t="n">
-        <v>2.2611108345230164</v>
+        <v>2.642493939193068</v>
       </c>
       <c r="C78" t="n">
-        <v>0.981</v>
+        <v>0.939</v>
       </c>
       <c r="D78" t="n">
-        <v>0.394</v>
+        <v>0.326</v>
       </c>
       <c r="E78" t="n">
-        <v>1.1738155134327103E-34</v>
+        <v>7.209607136619673E-45</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="H78" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.52137801322316E-37</v>
+        <v>3.48552501397932E-49</v>
       </c>
       <c r="B79" t="n">
-        <v>2.3094378613277975</v>
+        <v>2.6554637966222256</v>
       </c>
       <c r="C79" t="n">
-        <v>0.981</v>
+        <v>1.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.489</v>
+        <v>0.446</v>
       </c>
       <c r="E79" t="n">
-        <v>1.1841489016631456E-32</v>
+        <v>9.128590011611839E-45</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.256733192159157E-221</v>
+        <v>6.36559972495438E-79</v>
       </c>
       <c r="B80" t="n">
-        <v>2.1009842833043675</v>
+        <v>2.111916540810758</v>
       </c>
       <c r="C80" t="n">
-        <v>0.531</v>
+        <v>0.786</v>
       </c>
       <c r="D80" t="n">
-        <v>0.003</v>
+        <v>0.078</v>
       </c>
       <c r="E80" t="n">
-        <v>1.6386384230264833E-216</v>
+        <v>1.6671505679655522E-74</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H80" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.675265680265728E-206</v>
+        <v>5.940885383990701E-63</v>
       </c>
       <c r="B81" t="n">
-        <v>2.030447023496683</v>
+        <v>2.0982214192272965</v>
       </c>
       <c r="C81" t="n">
-        <v>0.592</v>
+        <v>0.893</v>
       </c>
       <c r="D81" t="n">
-        <v>0.006</v>
+        <v>0.134</v>
       </c>
       <c r="E81" t="n">
-        <v>2.010152081661594E-201</v>
+        <v>1.5559178820671645E-58</v>
       </c>
       <c r="F81" t="s">
         <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.033004139728002E-135</v>
+        <v>4.15359553115723E-51</v>
       </c>
       <c r="B82" t="n">
-        <v>2.023857406208078</v>
+        <v>2.0469029909859486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.714</v>
+        <v>0.946</v>
       </c>
       <c r="D82" t="n">
-        <v>0.026</v>
+        <v>0.219</v>
       </c>
       <c r="E82" t="n">
-        <v>1.8419437841947636E-130</v>
+        <v>1.0878266696100785E-46</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H82" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5364655844486015E-118</v>
+        <v>6.877883794419523E-51</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9905837535256197</v>
+        <v>2.0904947886141683</v>
       </c>
       <c r="C83" t="n">
-        <v>0.531</v>
+        <v>0.768</v>
       </c>
       <c r="D83" t="n">
-        <v>0.015</v>
+        <v>0.118</v>
       </c>
       <c r="E83" t="n">
-        <v>6.643003365670888E-114</v>
+        <v>1.8013177657584733E-46</v>
       </c>
       <c r="F83" t="s">
         <v>21</v>
@@ -5870,215 +5870,371 @@
         <v>163</v>
       </c>
       <c r="H83" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.841537880610003E-41</v>
+        <v>7.435776629495553E-43</v>
       </c>
       <c r="B84" t="n">
-        <v>1.9981658311851764</v>
+        <v>2.294949081031221</v>
       </c>
       <c r="C84" t="n">
-        <v>0.755</v>
+        <v>1.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.134</v>
+        <v>0.41</v>
       </c>
       <c r="E84" t="n">
-        <v>1.5298987709317597E-36</v>
+        <v>1.9474298992648854E-38</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="H84" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.7519236581696078E-39</v>
+        <v>6.050886073717385E-39</v>
       </c>
       <c r="B85" t="n">
-        <v>2.1445960331567986</v>
+        <v>2.3782094691234557</v>
       </c>
       <c r="C85" t="n">
-        <v>0.612</v>
+        <v>0.982</v>
       </c>
       <c r="D85" t="n">
-        <v>0.089</v>
+        <v>0.481</v>
       </c>
       <c r="E85" t="n">
-        <v>7.207288060746203E-35</v>
+        <v>1.584727062706583E-34</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="H85" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0</v>
+        <v>9.508180292891958E-122</v>
       </c>
       <c r="B86" t="n">
-        <v>3.408386826298539</v>
+        <v>2.041357981285157</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941</v>
+        <v>0.52</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0</v>
+        <v>2.4901924187084038E-117</v>
       </c>
       <c r="F86" t="s">
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.0</v>
+        <v>1.239594377407614E-74</v>
       </c>
       <c r="B87" t="n">
-        <v>3.19757967933909</v>
+        <v>2.001855721879112</v>
       </c>
       <c r="C87" t="n">
-        <v>0.882</v>
+        <v>0.52</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0</v>
+        <v>3.246497674430541E-70</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="H87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.0094706651119067E-262</v>
+        <v>7.061264629973886E-66</v>
       </c>
       <c r="B88" t="n">
-        <v>3.008348483909019</v>
+        <v>2.364460887209176</v>
       </c>
       <c r="C88" t="n">
-        <v>0.882</v>
+        <v>0.32</v>
       </c>
       <c r="D88" t="n">
         <v>0.005</v>
       </c>
       <c r="E88" t="n">
-        <v>2.6438036719280836E-258</v>
+        <v>1.8493452065901607E-61</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.47548449568225E-123</v>
+        <v>1.9787587197370735E-48</v>
       </c>
       <c r="B89" t="n">
-        <v>3.0597799345582413</v>
+        <v>4.03709946021655</v>
       </c>
       <c r="C89" t="n">
-        <v>0.941</v>
+        <v>0.28</v>
       </c>
       <c r="D89" t="n">
-        <v>0.021</v>
+        <v>0.006</v>
       </c>
       <c r="E89" t="n">
-        <v>6.483293894191814E-119</v>
+        <v>5.182369086991395E-44</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.602461414389386E-86</v>
+        <v>5.878921872208146E-26</v>
       </c>
       <c r="B90" t="n">
-        <v>3.2968096379791967</v>
+        <v>4.099218918380336</v>
       </c>
       <c r="C90" t="n">
-        <v>1.0</v>
+        <v>0.28</v>
       </c>
       <c r="D90" t="n">
-        <v>0.039</v>
+        <v>0.014</v>
       </c>
       <c r="E90" t="n">
-        <v>4.196846444285802E-82</v>
+        <v>1.5396896383313134E-21</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.0015209237454197E-15</v>
+        <v>4.682092374942619E-17</v>
       </c>
       <c r="B91" t="n">
-        <v>3.262089767561616</v>
+        <v>2.0348562166498962</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0</v>
+        <v>0.88</v>
       </c>
       <c r="D91" t="n">
-        <v>0.403</v>
+        <v>0.305</v>
       </c>
       <c r="E91" t="n">
-        <v>5.241983299289254E-11</v>
+        <v>1.226239992997472E-12</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H91" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.3988679675636306</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0911734196732015</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.477259469471407E-297</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.9788152585523395</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.487942550545615E-293</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.3056107851422336E-135</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0333410242677035</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.038394646287509E-131</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.5585823411141615E-92</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.263533596812769</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.1938927151377989E-87</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>6.269942806550514E-16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.1785423349300697</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.6420980210355797E-11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6099,109 +6255,109 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>219.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>344.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>263.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>349.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>330.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>74.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
@@ -6209,65 +6365,76 @@
         <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>49.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>147.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>215.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>168.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>82.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>54.0</v>
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.0</v>
       </c>
     </row>
   </sheetData>
@@ -6329,10 +6496,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -6355,10 +6522,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -6381,10 +6548,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -6407,10 +6574,10 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -6433,10 +6600,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -6459,10 +6626,10 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -6485,10 +6652,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -6511,10 +6678,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -6537,10 +6704,10 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -6563,10 +6730,10 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -6589,10 +6756,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -6615,10 +6782,10 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -6641,10 +6808,10 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -6667,10 +6834,10 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -6693,10 +6860,10 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -6722,7 +6889,7 @@
         <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -6745,10 +6912,10 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -6771,10 +6938,10 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -6797,10 +6964,10 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -6823,10 +6990,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
@@ -6849,10 +7016,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -6875,10 +7042,10 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -6901,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -6927,10 +7094,10 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -6953,10 +7120,10 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -6979,10 +7146,10 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -7008,7 +7175,7 @@
         <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -7031,10 +7198,10 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
@@ -7057,10 +7224,10 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -7083,10 +7250,10 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -7109,10 +7276,10 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -7135,10 +7302,10 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -7161,10 +7328,10 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -7187,10 +7354,10 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -7213,10 +7380,10 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -7239,10 +7406,10 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -7265,10 +7432,10 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -7291,10 +7458,10 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -7317,10 +7484,10 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -7343,10 +7510,10 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -7369,10 +7536,10 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -7395,10 +7562,10 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -7421,10 +7588,10 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -7447,10 +7614,10 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -7473,10 +7640,10 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
@@ -7499,10 +7666,10 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -7525,10 +7692,10 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -7551,10 +7718,10 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -7580,7 +7747,7 @@
         <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
@@ -7606,7 +7773,7 @@
         <v>174</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -7632,7 +7799,7 @@
         <v>175</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -7658,7 +7825,7 @@
         <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -7681,10 +7848,10 @@
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -7707,10 +7874,10 @@
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -7733,10 +7900,10 @@
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -7759,10 +7926,10 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -7785,10 +7952,10 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -7811,10 +7978,10 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -7837,10 +8004,10 @@
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -7863,10 +8030,10 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -7889,10 +8056,10 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -7915,10 +8082,10 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -7941,10 +8108,10 @@
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
@@ -7967,10 +8134,10 @@
         <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
@@ -7993,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -8019,10 +8186,10 @@
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
@@ -8045,10 +8212,10 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="H68" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -8071,10 +8238,10 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
@@ -8097,10 +8264,10 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H70" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -8123,10 +8290,10 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H71" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -8149,10 +8316,10 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H72" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -8175,10 +8342,10 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="H73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
@@ -8201,10 +8368,10 @@
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
@@ -8227,10 +8394,10 @@
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
@@ -8253,10 +8420,10 @@
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
@@ -8279,10 +8446,10 @@
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
@@ -8305,10 +8472,10 @@
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -8331,10 +8498,10 @@
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -8357,10 +8524,10 @@
         <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -8383,10 +8550,10 @@
         <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -8409,10 +8576,10 @@
         <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -8435,10 +8602,10 @@
         <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
@@ -8464,7 +8631,7 @@
         <v>181</v>
       </c>
       <c r="H84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
@@ -8490,7 +8657,7 @@
         <v>182</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
@@ -8513,10 +8680,10 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -8542,7 +8709,7 @@
         <v>183</v>
       </c>
       <c r="H87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
@@ -8565,10 +8732,10 @@
         <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
@@ -8594,7 +8761,7 @@
         <v>184</v>
       </c>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -8617,10 +8784,10 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
@@ -8646,7 +8813,7 @@
         <v>185</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -8825,10 +8992,10 @@
         <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
@@ -8851,10 +9018,10 @@
         <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
@@ -8877,10 +9044,10 @@
         <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
@@ -8903,10 +9070,10 @@
         <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
@@ -8929,10 +9096,10 @@
         <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
@@ -8955,10 +9122,10 @@
         <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8979,15 +9146,15 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8998,7 +9165,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -9009,7 +9176,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -9020,7 +9187,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -9031,7 +9198,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -9053,7 +9220,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -9064,7 +9231,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -9075,7 +9242,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -9086,7 +9253,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -9097,7 +9264,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -9108,7 +9275,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -9119,7 +9286,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -9130,7 +9297,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -9141,7 +9308,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -9152,7 +9319,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -9163,7 +9330,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
